--- a/Home measurments and calcs.xlsx
+++ b/Home measurments and calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aadam\OneDrive - Coventry University\Documents\Chem Eng\Year 3\EFE\Individual\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adf\Storage\a\a\axa1785\Year 3\EFE\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27ED881A-9BD2-4977-A27D-28A04962927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{011F4AE9-B206-43E5-882A-F76666A53064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="19200" windowHeight="10180" firstSheet="2" activeTab="4" xr2:uid="{68D9249C-E37E-47C4-9F04-F9B099F5BF22}"/>
+    <workbookView xWindow="0" yWindow="375" windowWidth="19200" windowHeight="10185" firstSheet="2" activeTab="4" xr2:uid="{68D9249C-E37E-47C4-9F04-F9B099F5BF22}"/>
   </bookViews>
   <sheets>
     <sheet name="Room Dimensions" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="U values Downstairsn" sheetId="3" r:id="rId3"/>
     <sheet name="U values Upstairs" sheetId="4" r:id="rId4"/>
     <sheet name="Final Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Ventillation" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,10 +30,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="196">
   <si>
     <t>Downstaiirs</t>
   </si>
@@ -78,6 +79,9 @@
     <t xml:space="preserve">Outer L </t>
   </si>
   <si>
+    <t xml:space="preserve">V </t>
+  </si>
+  <si>
     <t>Cavity</t>
   </si>
   <si>
@@ -87,6 +91,9 @@
     <t>Outer L</t>
   </si>
   <si>
+    <t>V m^3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wall 1 </t>
   </si>
   <si>
@@ -597,17 +604,38 @@
     <t>Downstairs bathroom</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>House</t>
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Cp Air hot</t>
+  </si>
+  <si>
+    <t>Volume (m^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cp Air Cold </t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>[K]</t>
+  </si>
+  <si>
+    <t>[(kW h)/(kg K)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,26 +732,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="48"/>
+      <sz val="8.8000000000000007"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="8.8000000000000007"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,8 +764,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -865,12 +893,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -906,10 +1004,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,8 +1061,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,6 +1383,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246C0F62-9924-2960-D154-6A40B66A9EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="666750"/>
+          <a:ext cx="4572000" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1562,61 +1729,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC42871E-AAFA-4DE5-91EC-ECCFF8ACD379}">
-  <dimension ref="B1:V91"/>
+  <dimension ref="B1:Y91"/>
   <sheetViews>
     <sheetView topLeftCell="F30" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1796875" customWidth="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:25">
       <c r="B1" s="1"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:25">
       <c r="B2" s="2"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
@@ -1630,7 +1797,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1642,29 +1809,29 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>3</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1692,38 +1859,43 @@
       <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" t="s">
         <v>12</v>
       </c>
-      <c r="V4">
+      <c r="X4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4">
         <f>0.27</f>
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:25">
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" s="18">
         <v>2.75</v>
@@ -1737,11 +1909,11 @@
         <v>9.5944500000000001</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18">
-        <f>H6</f>
+        <f>G6</f>
         <v>0.57050000000000001</v>
       </c>
       <c r="R5" s="18"/>
@@ -1749,42 +1921,49 @@
         <f>L5+ 2 * Q5</f>
         <v>3.891</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5">
+      <c r="T5">
+        <f>L5*M5*L7</f>
+        <v>23.155687500000006</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="1"/>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
+    <row r="6" spans="2:25">
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
       </c>
       <c r="D6" s="18">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="E6" s="18">
-        <v>2.625</v>
-      </c>
-      <c r="F6" s="18">
-        <f>E6*I6 -F13</f>
+        <f>D6*H6 -E13</f>
         <v>7.0007929687499999</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>12</v>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="18">
+        <f>Y4+Y9 + Y10 +Y12</f>
+        <v>0.57050000000000001</v>
       </c>
       <c r="H6" s="18">
-        <f>V4+V9 + V10 +V12</f>
-        <v>0.57050000000000001</v>
-      </c>
-      <c r="I6" s="18">
-        <f>D6+2*H6</f>
+        <f>C6+2*G6</f>
         <v>3.141</v>
+      </c>
+      <c r="I6">
+        <f>C6*D6*C8</f>
+        <v>12.928125</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L6" s="1">
         <v>2.75</v>
@@ -1798,11 +1977,11 @@
         <v>7.8077250000000005</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <f>H7</f>
+        <f>G7</f>
         <v>0.42649999999999999</v>
       </c>
       <c r="R6" s="1"/>
@@ -1810,42 +1989,41 @@
         <f t="shared" ref="S6:S8" si="0">L6+ 2 * Q6</f>
         <v>3.6029999999999998</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6">
+      <c r="X6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
+    <row r="7" spans="2:25">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="E7" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ref="F7:F11" si="1">E7*I7 -F14</f>
+        <f>D7*H7 -E14</f>
         <v>7.4891249999999996</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <f>Y6+Y9*3 +Y12</f>
+        <v>0.42649999999999999</v>
       </c>
       <c r="H7" s="1">
-        <f>V6+V9*3 +V12</f>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I8" si="2">D7+2*H7</f>
+        <f t="shared" ref="H7:H8" si="1">C7+2*G7</f>
         <v>2.8529999999999998</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1">
         <f>4.0875*0.8</f>
@@ -1856,15 +2034,15 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7:N10" si="3">L7*M7</f>
+        <f t="shared" ref="N7:N10" si="2">L7*M7</f>
         <v>8.4202500000000011</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <f>H8</f>
+        <f>G8</f>
         <v>0.42649999999999999</v>
       </c>
       <c r="R7" s="1"/>
@@ -1872,42 +2050,41 @@
         <f t="shared" si="0"/>
         <v>4.1230000000000002</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7">
+      <c r="X7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="2:25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.4624999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="E8" s="1">
+        <f>D8*H8 -F15</f>
+        <v>8.7031875000000003</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
-        <v>2.4624999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
+        <f>G7</f>
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>8.7031875000000003</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1">
-        <f>H7</f>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
         <v>3.3155000000000001</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1">
         <f>4.0875*0.8</f>
@@ -1922,11 +2099,11 @@
         <v>11.260475000000001</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <f>H9</f>
+        <f>G9</f>
         <v>0.55149999999999999</v>
       </c>
       <c r="R8" s="1"/>
@@ -1934,40 +2111,39 @@
         <f t="shared" si="0"/>
         <v>4.3730000000000002</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8">
+      <c r="X8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
+    <row r="9" spans="2:25">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.4624999999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>2.4624999999999999</v>
+        <v>2.625</v>
       </c>
       <c r="E9" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f>D9*H9 -F16</f>
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1">
-        <f>V7+V9*3 +V12</f>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <f>Y7+Y9*3 +Y12</f>
         <v>0.55149999999999999</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L9" s="1">
         <f>L8</f>
@@ -1978,44 +2154,43 @@
         <v>2.75</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.9925000000000015</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="U9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V9">
+      <c r="X9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9">
         <f>0.5/1000</f>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
+    <row r="10" spans="2:25">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C9</f>
+        <v>2.4624999999999999</v>
       </c>
       <c r="D10" s="1">
-        <f>D9</f>
-        <v>2.4624999999999999</v>
+        <f>C7</f>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <f>D7</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f>D10*H10 -F17</f>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="G10" s="1">
         <v>0.2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="1">
         <f>L9</f>
@@ -2026,52 +2201,51 @@
         <v>2.75</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.9925000000000015</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="U10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V10">
+      <c r="X10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
+    <row r="11" spans="2:25">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C10</f>
+        <v>2.4624999999999999</v>
       </c>
       <c r="D11" s="1">
         <f>D10</f>
-        <v>2.4624999999999999</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <f>E10</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f>D11*H11 -F18</f>
         <v>0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11" s="1">
+        <f>C26</f>
+        <v>0.7</v>
+      </c>
+      <c r="M11" s="1">
         <f>D26</f>
-        <v>0.7</v>
-      </c>
-      <c r="M11" s="1">
-        <f>E26</f>
         <v>2.1</v>
       </c>
       <c r="N11" s="1">
@@ -2084,35 +2258,34 @@
         <v>0.05</v>
       </c>
       <c r="R11" s="1"/>
-      <c r="U11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
+      <c r="X11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C27</f>
+        <v>0.7</v>
       </c>
       <c r="D12" s="1">
         <f>D27</f>
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E12" s="1">
-        <f>E27</f>
-        <v>2.1</v>
-      </c>
-      <c r="F12" s="1">
-        <f>E12*D12</f>
+        <f>D12*C12</f>
         <v>1.47</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
         <v>0.05</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="18">
         <f>L6*0.3</f>
@@ -2130,37 +2303,36 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="U12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12">
+      <c r="X12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12">
         <f>0.2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
-        <v>28</v>
+    <row r="13" spans="2:25">
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18">
+        <f>0.55*C9</f>
+        <v>1.3543750000000001</v>
       </c>
       <c r="D13" s="18">
-        <f>0.55*D9</f>
-        <v>1.3543750000000001</v>
+        <f>D9*0.35</f>
+        <v>0.91874999999999996</v>
       </c>
       <c r="E13" s="18">
-        <f>E9*0.35</f>
-        <v>0.91874999999999996</v>
-      </c>
-      <c r="F13" s="18">
-        <f>E13*D13</f>
+        <f>D13*C13</f>
         <v>1.2443320312500001</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
         <f>24/1000</f>
         <v>2.4E-2</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2171,17 +2343,16 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="U13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13">
+      <c r="X13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13">
         <f>40/1000</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="1"/>
-      <c r="I14" s="1"/>
+    <row r="14" spans="2:25">
+      <c r="H14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2192,14 +2363,14 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="U14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14">
+      <c r="X14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2218,14 +2389,14 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="U15" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15">
+      <c r="X15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15">
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2245,7 +2416,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:21">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2265,49 +2436,51 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:21">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="29"/>
+      <c r="D18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="32"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
+      <c r="M18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:21">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2321,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>4</v>
@@ -2332,38 +2505,44 @@
       <c r="T19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
-        <v>15</v>
+      <c r="U19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2.9750000000000001</v>
       </c>
       <c r="D20" s="18">
-        <v>2.9750000000000001</v>
+        <f>D8</f>
+        <v>2.625</v>
       </c>
       <c r="E20" s="18">
-        <f>E8</f>
-        <v>2.625</v>
-      </c>
-      <c r="F20" s="18">
-        <f>J20*E20 -F28*2 -F26</f>
+        <f>I20*D20 -E28*2 -E26</f>
         <v>6.8998124999999986</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18">
+        <f t="shared" ref="H20:H25" si="3">G6</f>
+        <v>0.57050000000000001</v>
+      </c>
       <c r="I20" s="18">
-        <f t="shared" ref="I20:I25" si="4">H6</f>
-        <v>0.57050000000000001</v>
-      </c>
-      <c r="J20" s="18">
-        <f>2*I20+D20</f>
+        <f>2*H20+C20</f>
         <v>4.1159999999999997</v>
+      </c>
+      <c r="J20">
+        <f>C20*D20*C24</f>
+        <v>20.69484375</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M20" s="18">
         <v>4.75</v>
@@ -2377,11 +2556,11 @@
         <v>10.123934375000001</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="18"/>
       <c r="R20" s="18">
-        <f>I20</f>
+        <f t="shared" ref="R20:R25" si="4">H20</f>
         <v>0.57050000000000001</v>
       </c>
       <c r="S20" s="18"/>
@@ -2389,43 +2568,46 @@
         <f>2*R20 + M20</f>
         <v>5.891</v>
       </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
+      <c r="U20">
+        <f>M20*N20*M23</f>
+        <v>48.925000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.9750000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>2.9750000000000001</v>
+        <f>D9</f>
+        <v>2.625</v>
       </c>
       <c r="E21" s="1">
-        <f>E9</f>
-        <v>2.625</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" ref="F21:F23" si="5">J21*E21 -F29*2 -F27</f>
+        <f>I21*D21 -E29*2 -E27</f>
         <v>8.3002500000000001</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42649999999999999</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" ref="J21:J23" si="6">2*I21+D21</f>
+        <f t="shared" ref="I21:I23" si="5">2*H21+C21</f>
         <v>3.8280000000000003</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21" s="1">
         <v>4.75</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" ref="N21:N23" si="7">2.575</f>
+        <f t="shared" ref="N21:N23" si="6">2.575</f>
         <v>2.5750000000000002</v>
       </c>
       <c r="O21" s="1">
@@ -2433,157 +2615,154 @@
         <v>12.957725</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1">
-        <f t="shared" ref="R21:R25" si="8">I21</f>
+        <f t="shared" si="4"/>
         <v>0.42649999999999999</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21">
-        <f t="shared" ref="T21:T23" si="9">2*R21 + M21</f>
+        <f t="shared" ref="T21:T23" si="7">2*R21 + M21</f>
         <v>5.6029999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="2:21">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="D22" s="1">
+        <f>D20</f>
+        <v>2.625</v>
+      </c>
+      <c r="E22" s="1">
+        <f>I22*D22 -E30*2 -E28</f>
+        <v>7.9780312500000008</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="E22" s="1">
-        <f>E20</f>
-        <v>2.625</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="5"/>
-        <v>7.9780312500000008</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O25" si="8">M22*N22</f>
+        <v>10.3</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1">
         <f t="shared" si="4"/>
         <v>0.42649999999999999</v>
       </c>
-      <c r="J22" s="1">
-        <f t="shared" si="6"/>
-        <v>3.5030000000000001</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="1">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="O22" s="1">
-        <f t="shared" ref="O22:O25" si="10">M22*N22</f>
-        <v>10.3</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1">
-        <f t="shared" si="8"/>
-        <v>0.42649999999999999</v>
-      </c>
       <c r="S22" s="1"/>
       <c r="T22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
+    <row r="23" spans="2:21">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.65</v>
       </c>
       <c r="D23" s="1">
-        <v>2.65</v>
+        <f>D21</f>
+        <v>2.625</v>
       </c>
       <c r="E23" s="1">
-        <f>E21</f>
-        <v>2.625</v>
-      </c>
-      <c r="F23" s="1">
+        <f>I23*D23 -F31*2 -E29</f>
+        <v>9.7125000000000004</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="5"/>
-        <v>9.7125000000000004</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="1">
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="8"/>
+        <v>10.3</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1">
         <f t="shared" si="4"/>
         <v>0.55149999999999999</v>
       </c>
-      <c r="J23" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7530000000000001</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="1">
-        <v>4</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" si="7"/>
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" si="10"/>
-        <v>10.3</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1">
-        <f t="shared" si="8"/>
-        <v>0.55149999999999999</v>
-      </c>
       <c r="S23" s="1"/>
       <c r="T23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.1029999999999998</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
+    <row r="24" spans="2:21">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C23</f>
+        <v>2.65</v>
       </c>
       <c r="D24" s="1">
-        <f>D23</f>
-        <v>2.65</v>
+        <f>C21</f>
+        <v>2.9750000000000001</v>
       </c>
       <c r="E24" s="1">
-        <f>D21</f>
-        <v>2.9750000000000001</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ref="F24:F25" si="11">D24*E24</f>
+        <f t="shared" ref="E24:E25" si="9">C24*D24</f>
         <v>7.88375</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="I24" s="1">
-        <f t="shared" si="4"/>
+      <c r="F24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M24" s="1">
         <f>M23</f>
@@ -2600,37 +2779,36 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
+    <row r="25" spans="2:21">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C24</f>
+        <v>2.65</v>
       </c>
       <c r="D25" s="1">
         <f>D24</f>
-        <v>2.65</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="E25" s="1">
-        <f>E24</f>
-        <v>2.9750000000000001</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>7.88375</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="I25" s="1">
-        <f t="shared" si="4"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M25" s="1">
         <f>M24</f>
@@ -2641,38 +2819,37 @@
         <v>4.75</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
+    <row r="26" spans="2:21">
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.7</v>
       </c>
       <c r="D26" s="1">
-        <v>0.7</v>
+        <f>D23*0.8</f>
+        <v>2.1</v>
       </c>
       <c r="E26" s="1">
-        <f>E23*0.8</f>
-        <v>2.1</v>
-      </c>
-      <c r="F26" s="1">
-        <f>D26*E26</f>
+        <f>C26*D26</f>
         <v>1.47</v>
       </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M26" s="1">
         <f>L11</f>
@@ -2693,28 +2870,27 @@
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
+    <row r="27" spans="2:21">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C26</f>
+        <v>0.7</v>
       </c>
       <c r="D27" s="1">
         <f>D26</f>
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E27" s="1">
-        <f>E26</f>
-        <v>2.1</v>
-      </c>
-      <c r="F27" s="1">
-        <f>D27*E27</f>
+        <f>C27*D27</f>
         <v>1.47</v>
       </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M27" s="18">
         <f>M20*0.55</f>
@@ -2733,30 +2909,29 @@
       <c r="R27" s="18"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="1"/>
-      <c r="C28" s="18" t="s">
-        <v>28</v>
+    <row r="28" spans="2:21">
+      <c r="B28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="18">
+        <f>C22*0.35</f>
+        <v>0.92749999999999988</v>
       </c>
       <c r="D28" s="18">
-        <f>D22*0.35</f>
-        <v>0.92749999999999988</v>
+        <f>D20*0.5</f>
+        <v>1.3125</v>
       </c>
       <c r="E28" s="18">
-        <f>E20*0.5</f>
-        <v>1.3125</v>
-      </c>
-      <c r="F28" s="18">
-        <f>D28*E28</f>
+        <f>C28*D28</f>
         <v>1.2173437499999999</v>
       </c>
+      <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="18">
-        <f>I29</f>
+      <c r="H28" s="18">
+        <f>H29</f>
         <v>2.4E-2</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2767,30 +2942,29 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="1"/>
-      <c r="C29" s="18" t="s">
-        <v>28</v>
+    <row r="29" spans="2:21">
+      <c r="B29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="18">
+        <f>C23*0.1</f>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D29" s="18">
-        <f>D23*0.1</f>
-        <v>0.26500000000000001</v>
+        <f>D21*0.2</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E29" s="18">
-        <f>E21*0.2</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F29" s="18">
-        <f>D29*E29</f>
+        <f>C29*D29</f>
         <v>0.13912500000000003</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="18">
-        <f>H13</f>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18">
+        <f>G13</f>
         <v>2.4E-2</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2801,7 +2975,7 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:21">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2810,7 +2984,6 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -2821,7 +2994,7 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:21">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2841,7 +3014,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:21">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2861,13 +3034,13 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:21">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="29"/>
+      <c r="D33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="32"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2883,67 +3056,72 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:21">
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+      <c r="M34" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="1"/>
-      <c r="C35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="18">
+    <row r="35" spans="2:21">
+      <c r="B35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="18">
         <f>3.9</f>
         <v>3.9</v>
       </c>
+      <c r="D35" s="18">
+        <f>D20</f>
+        <v>2.625</v>
+      </c>
       <c r="E35" s="18">
-        <f>E20</f>
-        <v>2.625</v>
-      </c>
-      <c r="F35" s="18">
-        <f>J35*E35 -F41 -F42</f>
+        <f>I35*D35 -E41 -E42</f>
         <v>10.292624999999999</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="18">
-        <f t="shared" ref="I35:I40" si="12">I20</f>
+      <c r="F35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="18">
+        <f t="shared" ref="H35:H40" si="10">H20</f>
         <v>0.57050000000000001</v>
       </c>
-      <c r="J35" s="1">
-        <f>2*I35+D35</f>
+      <c r="I35" s="1">
+        <f>2*H35+C35</f>
         <v>5.0410000000000004</v>
+      </c>
+      <c r="J35">
+        <f>C35*D35*C37</f>
+        <v>39.926249999999996</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2957,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>4</v>
@@ -2968,38 +3146,40 @@
       <c r="T35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
+      <c r="U35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:C38" si="11">3.9</f>
+        <v>3.9</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="13">3.9</f>
-        <v>3.9</v>
+        <f>D21</f>
+        <v>2.625</v>
       </c>
       <c r="E36" s="1">
-        <f>E21</f>
-        <v>2.625</v>
-      </c>
-      <c r="F36" s="1">
-        <f>J36*E36 -F43</f>
+        <f>I36*D36 -E43</f>
         <v>10.838625</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="10"/>
+        <v>0.42649999999999999</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="12"/>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" ref="J36:J37" si="14">2*I36+D36</f>
+        <f t="shared" ref="I36:I37" si="12">2*H36+C36</f>
         <v>4.7530000000000001</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M36" s="18">
         <v>4.5</v>
@@ -3012,7 +3192,7 @@
         <v>6.9609375</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="18"/>
       <c r="R36" s="18">
@@ -3023,38 +3203,41 @@
         <f>R36*2 + M36</f>
         <v>5.3250000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
+      <c r="U36">
+        <f>M38*N39*M37</f>
+        <v>31.893749999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="11"/>
+        <v>3.9</v>
+      </c>
+      <c r="D37" s="1">
+        <f>D22</f>
+        <v>2.625</v>
+      </c>
+      <c r="E37" s="1">
+        <f>I37*D37</f>
+        <v>12.476625</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="13"/>
-        <v>3.9</v>
-      </c>
-      <c r="E37" s="1">
-        <f>E22</f>
-        <v>2.625</v>
-      </c>
-      <c r="F37" s="1">
-        <f>J37*E37</f>
-        <v>12.476625</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
+      <c r="H37" s="1">
+        <f t="shared" si="10"/>
+        <v>0.42649999999999999</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="12"/>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="14"/>
         <v>4.7530000000000001</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M37" s="1">
         <v>4.5</v>
@@ -3067,7 +3250,7 @@
         <v>6.9609375</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1">
@@ -3075,41 +3258,40 @@
       </c>
       <c r="S37" s="1"/>
       <c r="T37">
-        <f t="shared" ref="T37:T39" si="15">R37*2 + M37</f>
+        <f t="shared" ref="T37:T39" si="13">R37*2 + M37</f>
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
+    <row r="38" spans="2:21">
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="11"/>
+        <v>3.9</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="13"/>
-        <v>3.9</v>
+        <f>D23</f>
+        <v>2.625</v>
       </c>
       <c r="E38" s="1">
-        <f>E23</f>
-        <v>2.625</v>
-      </c>
-      <c r="F38" s="1">
-        <f>J38*E38</f>
+        <f>I38*D38</f>
         <v>13.132875</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>19</v>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="10"/>
+        <v>0.55149999999999999</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="12"/>
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="J38" s="1">
-        <f>2*I38+D38</f>
+        <f>2*H38+C38</f>
         <v>5.0030000000000001</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M38" s="1">
         <v>3.15</v>
@@ -3122,7 +3304,7 @@
         <v>9.5692500000000003</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1">
@@ -3131,35 +3313,34 @@
       </c>
       <c r="S38" s="1"/>
       <c r="T38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.2530000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>22</v>
+    <row r="39" spans="2:21">
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <f>C38</f>
+        <v>3.9</v>
       </c>
       <c r="D39" s="1">
-        <f>D38</f>
+        <f>C38</f>
         <v>3.9</v>
       </c>
       <c r="E39" s="1">
-        <f>D38</f>
-        <v>3.9</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" ref="F39:F40" si="16">D39*E39</f>
+        <f t="shared" ref="E39:E40" si="14">C39*D39</f>
         <v>15.209999999999999</v>
       </c>
-      <c r="I39" s="1">
-        <f t="shared" si="12"/>
+      <c r="H39" s="1">
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
-      <c r="J39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M39" s="1">
         <v>3.15</v>
@@ -3172,7 +3353,7 @@
         <v>9.5692500000000003</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1">
@@ -3181,35 +3362,34 @@
       </c>
       <c r="S39" s="1"/>
       <c r="T39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.2530000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>24</v>
+    <row r="40" spans="2:21">
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C39</f>
+        <v>3.9</v>
       </c>
       <c r="D40" s="1">
         <f>D39</f>
         <v>3.9</v>
       </c>
       <c r="E40" s="1">
-        <f>E39</f>
-        <v>3.9</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>15.209999999999999</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="12"/>
+      <c r="H40" s="1">
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
-      <c r="J40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M40" s="1">
         <f>M41</f>
@@ -3220,7 +3400,7 @@
         <v>4.5</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" ref="O40:O41" si="17">M40*N40</f>
+        <f t="shared" ref="O40:O41" si="15">M40*N40</f>
         <v>14.174999999999999</v>
       </c>
       <c r="P40" s="1"/>
@@ -3228,30 +3408,29 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>42</v>
+    <row r="41" spans="2:21">
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1">
+        <f>C26</f>
+        <v>0.7</v>
       </c>
       <c r="D41" s="1">
         <f>D26</f>
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E41" s="1">
-        <f>E26</f>
-        <v>2.1</v>
-      </c>
-      <c r="F41" s="1">
-        <f>D41*E41</f>
+        <f>C41*D41</f>
         <v>1.47</v>
       </c>
-      <c r="I41" s="1">
+      <c r="H41" s="1">
         <v>0.05</v>
       </c>
-      <c r="J41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M41" s="1">
         <f>M39</f>
@@ -3262,7 +3441,7 @@
         <v>4.5</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>14.174999999999999</v>
       </c>
       <c r="P41" s="1"/>
@@ -3270,30 +3449,29 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
+    <row r="42" spans="2:21">
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1">
+        <f>C27</f>
+        <v>0.7</v>
       </c>
       <c r="D42" s="1">
         <f>D27</f>
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E42" s="1">
-        <f>E27</f>
-        <v>2.1</v>
-      </c>
-      <c r="F42" s="1">
-        <f>D42*E42</f>
+        <f>C42*D42</f>
         <v>1.47</v>
       </c>
-      <c r="I42" s="1">
+      <c r="H42" s="1">
         <v>0.05</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M42" s="1">
         <f>M26</f>
@@ -3314,33 +3492,32 @@
       </c>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="1"/>
-      <c r="C43" s="18" t="s">
-        <v>38</v>
+    <row r="43" spans="2:21">
+      <c r="B43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="18">
+        <f xml:space="preserve"> C36*0.4</f>
+        <v>1.56</v>
       </c>
       <c r="D43" s="18">
-        <f xml:space="preserve"> D36*0.4</f>
-        <v>1.56</v>
+        <f>D36*0.4</f>
+        <v>1.05</v>
       </c>
       <c r="E43" s="18">
-        <f>E36*0.4</f>
-        <v>1.05</v>
-      </c>
-      <c r="F43" s="18">
-        <f>D43*E43</f>
+        <f>C43*D43</f>
         <v>1.6380000000000001</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="18">
-        <f>I29</f>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="18">
+        <f>H29</f>
         <v>2.4E-2</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M43" s="18">
         <f>M36*0.4</f>
@@ -3359,7 +3536,7 @@
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:21">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3379,11 +3556,11 @@
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:21">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1"/>
@@ -3401,7 +3578,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:21">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3421,7 +3598,7 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:21">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3441,47 +3618,49 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:21">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="D48" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
+      <c r="M48" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:21">
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D49" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3493,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>9</v>
@@ -3507,36 +3686,42 @@
       <c r="T49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="U49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1">
         <f>4.5</f>
         <v>4.5</v>
       </c>
+      <c r="D50" s="1">
+        <f>D38</f>
+        <v>2.625</v>
+      </c>
       <c r="E50" s="1">
-        <f>E38</f>
-        <v>2.625</v>
-      </c>
-      <c r="F50" s="1">
-        <f>D50*E50</f>
+        <f>C50*D50</f>
         <v>11.8125</v>
       </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1">
-        <f>I38</f>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <f>H38</f>
         <v>0.55149999999999999</v>
+      </c>
+      <c r="I50">
+        <f>C50*D50*C52</f>
+        <v>9.7453124999999989</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M50" s="18">
         <f>2.2</f>
@@ -3551,7 +3736,7 @@
         <v>6.6999500000000003</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q50" s="18"/>
       <c r="R50" s="18">
@@ -3563,36 +3748,39 @@
         <f>2*R50 + M50</f>
         <v>3.3410000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="U50">
+        <f>M50*N50*M53</f>
+        <v>12.604625000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1">
         <f>4.5</f>
         <v>4.5</v>
       </c>
+      <c r="D51" s="1">
+        <f>D50</f>
+        <v>2.625</v>
+      </c>
       <c r="E51" s="1">
-        <f>E50</f>
-        <v>2.625</v>
-      </c>
-      <c r="F51" s="1">
-        <f>D51*E51 -F54 -F42</f>
+        <f>C51*D51 -E54 -E42</f>
         <v>8.8724999999999987</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1">
-        <f>I37</f>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <f>H37</f>
         <v>0.42649999999999999</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M51" s="1">
         <f>2.2</f>
@@ -3607,45 +3795,44 @@
         <v>6.3914750000000007</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1">
-        <f t="shared" ref="R51:R53" si="18">R21</f>
+        <f t="shared" ref="R51:R53" si="16">R21</f>
         <v>0.42649999999999999</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51">
-        <f t="shared" ref="T51:T53" si="19">2*R51 + M51</f>
+        <f t="shared" ref="T51:T53" si="17">2*R51 + M51</f>
         <v>3.0529999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>22</v>
+    <row r="52" spans="2:21">
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.82499999999999996</v>
       </c>
       <c r="D52" s="1">
-        <v>0.82499999999999996</v>
+        <f>C51</f>
+        <v>4.5</v>
       </c>
       <c r="E52" s="1">
-        <f>D51</f>
-        <v>4.5</v>
-      </c>
-      <c r="F52" s="1">
-        <f>D52*E52</f>
+        <f>C52*D52</f>
         <v>3.7124999999999999</v>
       </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1">
-        <f>I39</f>
+      <c r="H52" s="1">
+        <f>H39</f>
         <v>0.2</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M52" s="1">
         <v>2.2250000000000001</v>
@@ -3659,46 +3846,45 @@
         <v>6.4558500000000016</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.42649999999999999</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3.0780000000000003</v>
       </c>
     </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
+    <row r="53" spans="2:21">
+      <c r="B53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C52</f>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D53" s="1">
         <f>D52</f>
-        <v>0.82499999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E53" s="1">
-        <f>E52</f>
-        <v>4.5</v>
-      </c>
-      <c r="F53" s="1">
-        <f>D53*E53</f>
+        <f>C53*D53</f>
         <v>3.7124999999999999</v>
       </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1">
-        <f>I40</f>
+      <c r="H53" s="1">
+        <f>H40</f>
         <v>0.15</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M53" s="1">
         <v>2.2250000000000001</v>
@@ -3712,45 +3898,44 @@
         <v>8.5696000000000012</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.55149999999999999</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>3.3280000000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:20">
-      <c r="B54" s="1"/>
-      <c r="C54" s="18" t="s">
-        <v>48</v>
+    <row r="54" spans="2:21">
+      <c r="B54" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="18">
+        <f>C41</f>
+        <v>0.7</v>
       </c>
       <c r="D54" s="18">
         <f>D41</f>
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E54" s="18">
-        <f>E41</f>
-        <v>2.1</v>
-      </c>
-      <c r="F54" s="18">
-        <f>D54*E54</f>
+        <f>C54*D54</f>
         <v>1.47</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18">
+      <c r="F54" s="19"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18">
         <v>0.05</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M54" s="1">
         <f>M55</f>
@@ -3761,7 +3946,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" ref="O54:O56" si="20">M54*N54</f>
+        <f t="shared" ref="O54:O56" si="18">M54*N54</f>
         <v>4.8950000000000005</v>
       </c>
       <c r="P54" s="1"/>
@@ -3769,24 +3954,23 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="2:20">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>49</v>
-      </c>
+    <row r="55" spans="2:21">
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1">
-        <f>F54*0.8</f>
+      <c r="E55" s="1">
+        <f>E54*0.8</f>
         <v>1.1759999999999999</v>
       </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M55" s="1">
         <f>M53</f>
@@ -3797,7 +3981,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>4.8950000000000005</v>
       </c>
       <c r="P55" s="1"/>
@@ -3805,7 +3989,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:21">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3817,7 +4001,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M56" s="1">
         <f>M42</f>
@@ -3828,7 +4012,7 @@
         <v>2.1</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>1.47</v>
       </c>
       <c r="P56" s="1"/>
@@ -3838,7 +4022,7 @@
       </c>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:21">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3850,7 +4034,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M57" s="18">
         <f>0.875*1.45</f>
@@ -3869,7 +4053,7 @@
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:21">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3889,7 +4073,7 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:21">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3909,7 +4093,7 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:21">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3929,18 +4113,17 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="2:20">
+    <row r="61" spans="2:21">
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="C61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3951,67 +4134,72 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:21">
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D62" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H62" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="29" t="s">
+      <c r="M62" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="2:20">
-      <c r="B63" s="1"/>
-      <c r="C63" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="18">
+    <row r="63" spans="2:21">
+      <c r="B63" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="18">
         <f>4.025</f>
         <v>4.0250000000000004</v>
       </c>
+      <c r="D63" s="18">
+        <f>D35</f>
+        <v>2.625</v>
+      </c>
       <c r="E63" s="18">
-        <f>E35</f>
-        <v>2.625</v>
-      </c>
-      <c r="F63" s="18">
-        <f>J63*E63 - F70</f>
+        <f>I63*D63 - E70</f>
         <v>10.158914062499999</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18">
-        <f>I35</f>
+      <c r="F63" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18">
+        <f>H35</f>
         <v>0.57050000000000001</v>
       </c>
-      <c r="J63" s="1">
-        <f>2*I63 + D63</f>
+      <c r="I63" s="1">
+        <f>2*H63 + C63</f>
         <v>5.1660000000000004</v>
+      </c>
+      <c r="J63">
+        <f>C63*D63*C65</f>
+        <v>38.300390625000006</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4022,7 +4210,7 @@
         <v>7</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>9</v>
@@ -4036,39 +4224,41 @@
       <c r="T63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="2:20">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="U63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1">
         <f>4.025</f>
         <v>4.0250000000000004</v>
       </c>
+      <c r="D64" s="1">
+        <f>D36</f>
+        <v>2.625</v>
+      </c>
       <c r="E64" s="1">
-        <f>E36</f>
-        <v>2.625</v>
-      </c>
-      <c r="F64" s="1">
-        <f>J64*E64 - F69</f>
+        <f>I64*D64 - E69</f>
         <v>11.33475</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1">
+        <f>H36</f>
+        <v>0.42649999999999999</v>
+      </c>
       <c r="I64" s="1">
-        <f>I36</f>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="J64" s="1">
-        <f t="shared" ref="J64:J66" si="21">2*I64 + D64</f>
+        <f t="shared" ref="I64:I66" si="19">2*H64 + C64</f>
         <v>4.8780000000000001</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M64" s="1">
         <f>2.2</f>
@@ -4083,11 +4273,11 @@
         <v>6.0082250000000013</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1">
-        <f>R50 + V8</f>
+        <f>R50 + Y8</f>
         <v>0.58050000000000002</v>
       </c>
       <c r="S64" s="1"/>
@@ -4095,39 +4285,42 @@
         <f>2*R64 + M64</f>
         <v>3.3610000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="2:20">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="U64">
+        <f>M64*N64*M65</f>
+        <v>10.769000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
+      <c r="B65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="1">
         <f>3.625</f>
         <v>3.625</v>
       </c>
+      <c r="D65" s="1">
+        <f>D37</f>
+        <v>2.625</v>
+      </c>
       <c r="E65" s="1">
-        <f>E37</f>
-        <v>2.625</v>
-      </c>
-      <c r="F65" s="1">
-        <f>J65*E65</f>
+        <f>I65*D65</f>
         <v>11.75475</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1">
+        <f>H37</f>
+        <v>0.42649999999999999</v>
+      </c>
       <c r="I65" s="1">
-        <f>I37</f>
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="J65" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>4.4779999999999998</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M65" s="1">
         <f>2.2</f>
@@ -4142,11 +4335,11 @@
         <v>6.8374250000000014</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1">
-        <f>R51 + V8</f>
+        <f>R51 + Y8</f>
         <v>0.4365</v>
       </c>
       <c r="S65" s="1"/>
@@ -4155,44 +4348,43 @@
         <v>3.0730000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:20">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="1">
+    <row r="66" spans="2:21">
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="1">
         <f>3.625</f>
         <v>3.625</v>
       </c>
+      <c r="D66" s="1">
+        <f>D38</f>
+        <v>2.625</v>
+      </c>
       <c r="E66" s="1">
-        <f>E38</f>
-        <v>2.625</v>
-      </c>
-      <c r="F66" s="1">
-        <f>J66*E66</f>
+        <f>I66*D66</f>
         <v>12.411</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1">
+        <f>H38</f>
+        <v>0.55149999999999999</v>
+      </c>
       <c r="I66" s="1">
-        <f>I38</f>
-        <v>0.55149999999999999</v>
-      </c>
-      <c r="J66" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>4.7279999999999998</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M66" s="18">
         <v>2.2250000000000001</v>
       </c>
       <c r="N66" s="18">
-        <f t="shared" ref="N66:N67" si="22">2.225</f>
+        <f t="shared" ref="N66:N67" si="20">2.225</f>
         <v>2.2250000000000001</v>
       </c>
       <c r="O66" s="18">
@@ -4200,11 +4392,11 @@
         <v>6.0180499999999997</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q66" s="18"/>
       <c r="R66" s="18">
-        <f>R52 +V8</f>
+        <f>R52 +Y8</f>
         <v>0.4365</v>
       </c>
       <c r="S66" s="18"/>
@@ -4213,35 +4405,34 @@
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:20">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>22</v>
+    <row r="67" spans="2:21">
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1">
+        <f>C65</f>
+        <v>3.625</v>
       </c>
       <c r="D67" s="1">
-        <f>D65</f>
-        <v>3.625</v>
+        <f>C64</f>
+        <v>4.0250000000000004</v>
       </c>
       <c r="E67" s="1">
-        <f>D64</f>
-        <v>4.0250000000000004</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" ref="F67:F68" si="23">D67*E67</f>
+        <f t="shared" ref="E67:E68" si="21">C67*D67</f>
         <v>14.590625000000001</v>
       </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M67" s="1">
         <v>2.2250000000000001</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.2250000000000001</v>
       </c>
       <c r="O67" s="1">
@@ -4249,11 +4440,11 @@
         <v>7.4493</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1">
-        <f>R53 + V8</f>
+        <f>R53 + Y8</f>
         <v>0.5615</v>
       </c>
       <c r="S67" s="1"/>
@@ -4262,29 +4453,28 @@
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:20">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>24</v>
+    <row r="68" spans="2:21">
+      <c r="B68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="1">
+        <f>C67</f>
+        <v>3.625</v>
       </c>
       <c r="D68" s="1">
         <f>D67</f>
-        <v>3.625</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="E68" s="1">
-        <f>E67</f>
-        <v>4.0250000000000004</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>14.590625000000001</v>
       </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -4294,31 +4484,30 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="2:20">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1" t="s">
-        <v>48</v>
+    <row r="69" spans="2:21">
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1">
+        <f>C54</f>
+        <v>0.7</v>
       </c>
       <c r="D69" s="1">
         <f>D54</f>
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E69" s="1">
-        <f>E54</f>
-        <v>2.1</v>
-      </c>
-      <c r="F69" s="1">
-        <f>D69*E69</f>
+        <f>C69*D69</f>
         <v>1.47</v>
       </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1">
         <v>0.05</v>
       </c>
-      <c r="J69" s="1"/>
+      <c r="I69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -4328,29 +4517,28 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="2:20">
-      <c r="B70" s="1"/>
-      <c r="C70" s="18" t="s">
-        <v>55</v>
+    <row r="70" spans="2:21">
+      <c r="B70" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="18">
+        <f>C65*0.65</f>
+        <v>2.3562500000000002</v>
       </c>
       <c r="D70" s="18">
-        <f>D65*0.65</f>
-        <v>2.3562500000000002</v>
+        <f>D65*0.55</f>
+        <v>1.4437500000000001</v>
       </c>
       <c r="E70" s="18">
-        <f>E65*0.55</f>
-        <v>1.4437500000000001</v>
-      </c>
-      <c r="F70" s="18">
-        <f>D70*E70</f>
+        <f>C70*D70</f>
         <v>3.4018359375000005</v>
       </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M70" s="1">
         <f>M56</f>
@@ -4371,7 +4559,7 @@
       </c>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:21">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -4380,10 +4568,9 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M71" s="18">
         <v>0.875</v>
@@ -4400,7 +4587,7 @@
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:21">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -4420,7 +4607,7 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:21">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -4440,7 +4627,7 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:21">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -4452,17 +4639,20 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
+      <c r="M74" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="2:20">
+      <c r="U74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4484,7 +4674,7 @@
         <v>8</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>4</v>
@@ -4492,8 +4682,12 @@
       <c r="S75" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="2:20">
+      <c r="U75">
+        <f>M76*M78*N76</f>
+        <v>10.155600000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4505,7 +4699,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M76" s="1">
         <f>4.2 - 0.4*M77</f>
@@ -4519,7 +4713,7 @@
         <v>6.5520000000000005</v>
       </c>
       <c r="P76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1">
@@ -4528,7 +4722,7 @@
       </c>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:21">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4540,7 +4734,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M77" s="1">
         <v>4.2</v>
@@ -4554,7 +4748,7 @@
         <v>8.8200000000000038</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="R77" s="1">
@@ -4563,7 +4757,7 @@
       </c>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:21">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4575,7 +4769,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M78" s="1">
         <v>1.55</v>
@@ -4593,7 +4787,7 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="2:20">
+    <row r="79" spans="2:21">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4605,7 +4799,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M79" s="1">
         <f>M78</f>
@@ -4616,7 +4810,7 @@
         <v>4.2</v>
       </c>
       <c r="O79" s="1">
-        <f t="shared" ref="O79" si="24">M79*N79</f>
+        <f t="shared" ref="O79" si="22">M79*N79</f>
         <v>6.5100000000000007</v>
       </c>
       <c r="P79" s="1"/>
@@ -4624,7 +4818,7 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="2:20">
+    <row r="80" spans="2:21">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4868,13 +5062,12 @@
       <c r="S91" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="M74:O74"/>
     <mergeCell ref="M48:Q48"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="M62:P62"/>
     <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D61:H61"/>
     <mergeCell ref="C1:G2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D18:E18"/>
@@ -4896,52 +5089,52 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1"/>
-    <row r="2" spans="2:16" ht="22.5">
-      <c r="B2" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="31"/>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="23.25">
+      <c r="B2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="34"/>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+        <v>61</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="O2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="22.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="23.25">
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="9">
         <v>1.7</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5">
         <v>46</v>
@@ -4949,31 +5142,31 @@
       <c r="G3" s="5">
         <v>0.8</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="33"/>
+      <c r="I3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="36"/>
       <c r="O3" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P3" s="12">
         <f>(0.2 + 0.31)/2</f>
         <v>0.255</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="22.5">
+    <row r="4" spans="2:16" ht="23.25">
       <c r="B4" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9">
         <v>1.31</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5">
         <v>58</v>
@@ -4982,34 +5175,34 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P4" s="12">
         <f>(0.039 + 0.057)/2</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="22.5">
+    <row r="5" spans="2:16" ht="23.25">
       <c r="B5" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>0.96</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5">
         <v>70</v>
@@ -5030,22 +5223,22 @@
         <v>6</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P5" s="12">
         <f>(0.27 + 0.67)/2</f>
         <v>0.47000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="22.5">
+    <row r="6" spans="2:16" ht="23.25">
       <c r="B6" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="9">
         <v>0.17</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5">
         <v>80</v>
@@ -5056,21 +5249,21 @@
       <c r="H6" s="14"/>
       <c r="J6" s="15"/>
       <c r="O6" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P6" s="12">
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="22.5">
+    <row r="7" spans="2:16" ht="23.25">
       <c r="B7" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="9">
         <v>0.14000000000000001</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="5">
         <v>93</v>
@@ -5081,34 +5274,34 @@
       <c r="H7" s="14"/>
       <c r="J7" s="15"/>
       <c r="O7" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P7" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="22.5">
+    <row r="8" spans="2:16" ht="23.25">
       <c r="B8" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="O8" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P8" s="12">
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="22.5">
+    <row r="9" spans="2:16" ht="23.25">
       <c r="E9" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="5">
         <v>145</v>
@@ -5117,15 +5310,15 @@
         <v>2.5</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P9" s="12">
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="22.5">
+    <row r="10" spans="2:16" ht="23.25">
       <c r="E10" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="5">
         <v>275</v>
@@ -5134,28 +5327,28 @@
         <v>4.7</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P10" s="12">
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="22.5">
+    <row r="11" spans="2:16" ht="23.25">
       <c r="E11" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="O11" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="12">
         <v>0.85</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="22.5">
+    <row r="12" spans="2:16" ht="23.25">
       <c r="E12" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" s="5">
         <v>110</v>
@@ -5164,15 +5357,15 @@
         <v>1.9</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P12" s="12">
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="22.5">
+    <row r="13" spans="2:16" ht="23.25">
       <c r="E13" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5">
         <v>200</v>
@@ -5181,15 +5374,15 @@
         <v>3.4</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="12">
         <v>0.77</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="22.5">
+    <row r="14" spans="2:16" ht="23.25">
       <c r="E14" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="5">
         <v>550</v>
@@ -5198,67 +5391,67 @@
         <v>9.5</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P14" s="12">
         <f>(0.023 + 0.052)/2</f>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.5">
+    <row r="15" spans="2:16" ht="15.75">
       <c r="O15" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P15" s="12">
         <f>(0.92 + 0.94)/2</f>
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.5">
+    <row r="16" spans="2:16" ht="15.75">
       <c r="O16" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P16" s="12">
         <v>0.85</v>
       </c>
     </row>
-    <row r="17" spans="15:16" ht="15.5">
+    <row r="17" spans="15:16" ht="15.75">
       <c r="O17" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="12">
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="15:16" ht="15.5">
+    <row r="18" spans="15:16" ht="15.75">
       <c r="O18" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P18" s="12">
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="15:16" ht="15.5">
+    <row r="19" spans="15:16" ht="15.75">
       <c r="O19" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P19" s="12">
         <f>(0.92 + 0.96)/2</f>
         <v>0.94</v>
       </c>
     </row>
-    <row r="20" spans="15:16" ht="15.5">
+    <row r="20" spans="15:16" ht="15.75">
       <c r="O20" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" s="12">
         <f>(0.95 + 0.963)/2</f>
         <v>0.95649999999999991</v>
       </c>
     </row>
-    <row r="21" spans="15:16" ht="16" thickBot="1">
+    <row r="21" spans="15:16" ht="16.5" thickBot="1">
       <c r="O21" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P21" s="17">
         <v>0.95</v>
@@ -5283,117 +5476,117 @@
       <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:43">
-      <c r="C1" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="C1" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
       <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="3:43">
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
     </row>
     <row r="3" spans="3:43">
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
       <c r="AB3" s="20"/>
       <c r="AC3" s="20"/>
       <c r="AD3" s="20"/>
     </row>
     <row r="4" spans="3:43">
-      <c r="R4" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="R4" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
       <c r="AB4" s="20"/>
-      <c r="AI4" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
+      <c r="AI4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
     </row>
     <row r="5" spans="3:43" ht="36">
-      <c r="E5" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="R5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="33"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-    </row>
-    <row r="6" spans="3:43" ht="15.5">
+      <c r="E5" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="R5" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="36"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+    </row>
+    <row r="6" spans="3:43" ht="15.75">
       <c r="R6" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
         <v>3</v>
@@ -5404,19 +5597,19 @@
       <c r="Z6" t="s">
         <v>9</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-    </row>
-    <row r="7" spans="3:43" ht="15.5">
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+    </row>
+    <row r="7" spans="3:43" ht="15.75">
       <c r="E7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R7" s="13">
         <v>10</v>
@@ -5431,97 +5624,97 @@
         <v>6</v>
       </c>
       <c r="X7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7">
         <f>0.27</f>
         <v>0.27</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
     </row>
     <row r="8" spans="3:43">
       <c r="E8" s="21">
         <v>0.9</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
     </row>
     <row r="9" spans="3:43">
       <c r="X9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y9">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
     </row>
     <row r="10" spans="3:43">
       <c r="X10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y10">
         <v>0.35</v>
       </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
     </row>
     <row r="11" spans="3:43">
       <c r="X11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y11">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
     </row>
     <row r="12" spans="3:43">
       <c r="X12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y12">
         <f>0.5/1000</f>
@@ -5530,7 +5723,7 @@
     </row>
     <row r="13" spans="3:43">
       <c r="X13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y13">
         <f>100/1000</f>
@@ -5542,12 +5735,12 @@
     </row>
     <row r="14" spans="3:43">
       <c r="X14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="3:43">
       <c r="X15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y15">
         <f>0.2</f>
@@ -5557,9 +5750,9 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="16" spans="3:43" ht="15.5">
+    <row r="16" spans="3:43" ht="15.75">
       <c r="X16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y16">
         <f>40/1000</f>
@@ -5569,9 +5762,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="24:26" ht="19">
+    <row r="17" spans="24:26" ht="18.75">
       <c r="X17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y17">
         <v>5.3999999999999999E-2</v>
@@ -5582,7 +5775,7 @@
     </row>
     <row r="18" spans="24:26">
       <c r="X18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y18">
         <v>0.24</v>
@@ -5593,7 +5786,7 @@
     </row>
     <row r="19" spans="24:26">
       <c r="X19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y19">
         <f>4/1000</f>
@@ -5606,7 +5799,7 @@
     </row>
     <row r="20" spans="24:26">
       <c r="X20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -5617,7 +5810,7 @@
     </row>
     <row r="21" spans="24:26">
       <c r="X21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y21">
         <f>5/1000</f>
@@ -5629,7 +5822,7 @@
     </row>
     <row r="22" spans="24:26">
       <c r="X22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y22">
         <f>6/1000</f>
@@ -5641,7 +5834,7 @@
     </row>
     <row r="23" spans="24:26">
       <c r="X23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y23">
         <f>35/1000</f>
@@ -5652,51 +5845,51 @@
       </c>
     </row>
     <row r="34" spans="4:47">
-      <c r="D34" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="J34" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="39"/>
+      <c r="D34" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="J34" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="4:47">
       <c r="D35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35">
-        <f>1/(S7*('Room Dimensions'!F55 + 'Room Dimensions'!F54))</f>
+        <f>1/(S7*('Room Dimensions'!E55 + 'Room Dimensions'!E54))</f>
         <v>1.5117157974300834E-2</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H35">
         <f>(SUM(E35:E41))^-1</f>
         <v>0.39407890541013596</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K35">
         <f>1/(S7*K42)</f>
         <v>9.0702947845804988E-2</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="4:47">
       <c r="D36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E36">
-        <f>Y17/(Z17*'Room Dimensions'!F54)</f>
+        <f>Y17/(Z17*'Room Dimensions'!E54)</f>
         <v>0.1933404940923738</v>
       </c>
       <c r="J36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K36">
         <f>Y19/(Z19*K42)</f>
@@ -5709,14 +5902,14 @@
     </row>
     <row r="37" spans="4:47">
       <c r="D37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E37">
-        <f>Y18/(Z18*'Room Dimensions'!F55)</f>
+        <f>Y18/(Z18*'Room Dimensions'!E55)</f>
         <v>0.15578750584203147</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K37">
         <f>Y20/(Z20*K42)</f>
@@ -5725,14 +5918,14 @@
     </row>
     <row r="38" spans="4:47">
       <c r="D38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E38">
-        <f>'Room Dimensions'!V10/(Z13*'Room Dimensions'!F55)</f>
+        <f>'Room Dimensions'!Y10/(Z13*'Room Dimensions'!E55)</f>
         <v>1.809234332030685</v>
       </c>
       <c r="J38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K38">
         <f>K36</f>
@@ -5741,14 +5934,14 @@
     </row>
     <row r="39" spans="4:47">
       <c r="D39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <f>E37</f>
         <v>0.15578750584203147</v>
       </c>
       <c r="J39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K39">
         <f>1/(R7*K42)</f>
@@ -5757,7 +5950,7 @@
     </row>
     <row r="40" spans="4:47">
       <c r="D40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E40">
         <f>'U values Downstairsn'!Y15/'U values Downstairsn'!Z15</f>
@@ -5766,63 +5959,63 @@
     </row>
     <row r="41" spans="4:47">
       <c r="D41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E41">
-        <f>1/(R7*('Room Dimensions'!F55 + 'Room Dimensions'!F54))</f>
+        <f>1/(R7*('Room Dimensions'!E55 + 'Room Dimensions'!E54))</f>
         <v>3.779289493575208E-2</v>
       </c>
       <c r="J41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K41">
         <f>(SUM(K35:K39))^-1</f>
         <v>6.0483949972243087E-2</v>
       </c>
-      <c r="AK41" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL41" s="39"/>
-      <c r="AN41" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO41" s="39"/>
-      <c r="AQ41" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR41" s="39"/>
+      <c r="AK41" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL41" s="42"/>
+      <c r="AN41" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO41" s="42"/>
+      <c r="AQ41" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR41" s="42"/>
     </row>
     <row r="42" spans="4:47">
       <c r="J42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K42">
-        <f>0.3*'Room Dimensions'!F69</f>
+        <f>0.3*'Room Dimensions'!E69</f>
         <v>0.441</v>
       </c>
       <c r="AK42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL42">
         <f>1/(S7*AU44)</f>
         <v>3.9374287206202065E-3</v>
       </c>
       <c r="AN42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AO42">
         <f>Y19/(Z19*AU42)</f>
         <v>1.3671627502153498E-3</v>
       </c>
       <c r="AQ42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AR42">
         <f>Y18/(Z18*AU43)</f>
         <v>2.5762892392280523E-2</v>
       </c>
       <c r="AT42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AU42" s="1">
         <f>AU44*0.3</f>
@@ -5831,28 +6024,28 @@
     </row>
     <row r="43" spans="4:47">
       <c r="AK43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL43">
         <f>1/(R7*AU44)</f>
         <v>9.8435718015505158E-3</v>
       </c>
       <c r="AN43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AO43">
         <f>Y20/(Z20*AU42)</f>
         <v>2.3437075717977418</v>
       </c>
       <c r="AQ43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AR43">
         <f>Y13/(Z13*AU43)</f>
         <v>0.29919671129332887</v>
       </c>
       <c r="AT43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AU43" s="1">
         <f>AU44-AU42</f>
@@ -5860,43 +6053,43 @@
       </c>
     </row>
     <row r="44" spans="4:47" ht="61.5">
-      <c r="G44" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
+      <c r="G44" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
       <c r="AN44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AO44">
         <f>AO42</f>
         <v>1.3671627502153498E-3</v>
       </c>
       <c r="AQ44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AR44">
         <f>AR42</f>
         <v>2.5762892392280523E-2</v>
       </c>
       <c r="AT44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AU44" s="1">
-        <f>'Room Dimensions'!F63</f>
+        <f>'Room Dimensions'!E63</f>
         <v>10.158914062499999</v>
       </c>
     </row>
     <row r="45" spans="4:47">
       <c r="AQ45" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AR45">
         <f>Y15/(Z15*AU43)</f>
@@ -5905,21 +6098,21 @@
     </row>
     <row r="46" spans="4:47">
       <c r="AK46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL46">
         <f>AL42+AL43</f>
         <v>1.3781000522170721E-2</v>
       </c>
       <c r="AN46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AO46">
         <f>AO42+AO43+AO44</f>
         <v>2.3464418972981722</v>
       </c>
       <c r="AQ46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AR46">
         <f>SUM(AR42:AR45)</f>
@@ -5928,7 +6121,7 @@
     </row>
     <row r="49" spans="21:47">
       <c r="AN49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AO49">
         <f>1/(SUM(AL46,AO46,AR46))</f>
@@ -5936,75 +6129,75 @@
       </c>
     </row>
     <row r="52" spans="21:47">
-      <c r="AJ52" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK52" s="35"/>
-      <c r="AL52" s="35"/>
-      <c r="AM52" s="35"/>
-      <c r="AN52" s="35"/>
-      <c r="AO52" s="35"/>
-      <c r="AP52" s="35"/>
-      <c r="AQ52" s="35"/>
-      <c r="AR52" s="35"/>
-      <c r="AS52" s="35"/>
-      <c r="AT52" s="35"/>
-      <c r="AU52" s="35"/>
+      <c r="AJ52" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK52" s="38"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="38"/>
+      <c r="AN52" s="38"/>
+      <c r="AO52" s="38"/>
+      <c r="AP52" s="38"/>
+      <c r="AQ52" s="38"/>
+      <c r="AR52" s="38"/>
+      <c r="AS52" s="38"/>
+      <c r="AT52" s="38"/>
+      <c r="AU52" s="38"/>
     </row>
     <row r="53" spans="21:47">
-      <c r="U53" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35"/>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35"/>
-      <c r="AU53" s="35"/>
-    </row>
-    <row r="54" spans="21:47" ht="15.5">
-      <c r="U54" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="V54" s="32"/>
-      <c r="W54" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="X54" s="33"/>
-      <c r="AJ54" s="35"/>
-      <c r="AK54" s="35"/>
-      <c r="AL54" s="35"/>
-      <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="35"/>
-      <c r="AQ54" s="35"/>
-      <c r="AR54" s="35"/>
-      <c r="AS54" s="35"/>
-      <c r="AT54" s="35"/>
-      <c r="AU54" s="35"/>
-    </row>
-    <row r="55" spans="21:47" ht="15.5">
+      <c r="U53" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="AJ53" s="38"/>
+      <c r="AK53" s="38"/>
+      <c r="AL53" s="38"/>
+      <c r="AM53" s="38"/>
+      <c r="AN53" s="38"/>
+      <c r="AO53" s="38"/>
+      <c r="AP53" s="38"/>
+      <c r="AQ53" s="38"/>
+      <c r="AR53" s="38"/>
+      <c r="AS53" s="38"/>
+      <c r="AT53" s="38"/>
+      <c r="AU53" s="38"/>
+    </row>
+    <row r="54" spans="21:47" ht="15.75">
+      <c r="U54" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="V54" s="35"/>
+      <c r="W54" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X54" s="36"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="38"/>
+      <c r="AL54" s="38"/>
+      <c r="AM54" s="38"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="38"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="38"/>
+      <c r="AS54" s="38"/>
+      <c r="AT54" s="38"/>
+      <c r="AU54" s="38"/>
+    </row>
+    <row r="55" spans="21:47" ht="15.75">
       <c r="U55" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W55" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X55" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA55" t="s">
         <v>3</v>
@@ -6016,7 +6209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="21:47" ht="15.5">
+    <row r="56" spans="21:47" ht="15.75">
       <c r="U56" s="13">
         <v>10</v>
       </c>
@@ -6030,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="AA56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB56">
         <f>0.27</f>
@@ -6039,7 +6232,7 @@
     </row>
     <row r="57" spans="21:47">
       <c r="AA57" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB57">
         <v>0.22500000000000001</v>
@@ -6047,7 +6240,7 @@
     </row>
     <row r="58" spans="21:47">
       <c r="AA58" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB58">
         <v>0.22500000000000001</v>
@@ -6055,7 +6248,7 @@
     </row>
     <row r="59" spans="21:47">
       <c r="AA59" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB59">
         <v>0.35</v>
@@ -6063,7 +6256,7 @@
     </row>
     <row r="60" spans="21:47">
       <c r="AA60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB60">
         <f>10/1000</f>
@@ -6072,7 +6265,7 @@
     </row>
     <row r="61" spans="21:47">
       <c r="AA61" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB61">
         <f>0.5/1000</f>
@@ -6081,7 +6274,7 @@
     </row>
     <row r="62" spans="21:47">
       <c r="AA62" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB62">
         <f>100/1000</f>
@@ -6093,12 +6286,12 @@
     </row>
     <row r="63" spans="21:47">
       <c r="AA63" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="21:47">
       <c r="AA64" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB64">
         <f>0.2</f>
@@ -6108,9 +6301,9 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="65" spans="6:45" ht="15.5">
+    <row r="65" spans="6:45" ht="15.75">
       <c r="AA65" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB65">
         <f>40/1000</f>
@@ -6120,9 +6313,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="66" spans="6:45" ht="19">
+    <row r="66" spans="6:45" ht="18.75">
       <c r="AA66" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB66">
         <v>5.3999999999999999E-2</v>
@@ -6133,7 +6326,7 @@
     </row>
     <row r="67" spans="6:45">
       <c r="AA67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB67">
         <v>0.24</v>
@@ -6144,7 +6337,7 @@
     </row>
     <row r="68" spans="6:45">
       <c r="AA68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB68">
         <f>4/1000</f>
@@ -6157,7 +6350,7 @@
     </row>
     <row r="69" spans="6:45">
       <c r="AA69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB69">
         <v>1</v>
@@ -6168,7 +6361,7 @@
     </row>
     <row r="70" spans="6:45">
       <c r="AA70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AB70">
         <f>5/1000</f>
@@ -6180,7 +6373,7 @@
     </row>
     <row r="71" spans="6:45">
       <c r="AA71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB71">
         <f>6/1000</f>
@@ -6192,7 +6385,7 @@
     </row>
     <row r="72" spans="6:45">
       <c r="AA72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB72">
         <f>35/1000</f>
@@ -6203,96 +6396,96 @@
       </c>
     </row>
     <row r="73" spans="6:45">
-      <c r="F73" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" s="39"/>
-      <c r="I73" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J73" s="39"/>
-      <c r="L73" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="M73" s="39"/>
+      <c r="F73" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" s="42"/>
+      <c r="I73" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J73" s="42"/>
+      <c r="L73" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="M73" s="42"/>
     </row>
     <row r="74" spans="6:45">
       <c r="F74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G74">
         <f>1/(S7*P76)</f>
         <v>2.9496893608391872E-3</v>
       </c>
       <c r="I74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J74">
         <f>Y19/(Z19*P74)</f>
         <v>1.2248288110357076E-3</v>
       </c>
       <c r="L74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M74">
         <f>Y18/(Z18*P75)</f>
         <v>1.8034024674596368E-2</v>
       </c>
       <c r="O74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P74" s="1">
-        <f>'Room Dimensions'!F70</f>
+        <f>'Room Dimensions'!E70</f>
         <v>3.4018359375000005</v>
       </c>
     </row>
     <row r="75" spans="6:45">
       <c r="F75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G75">
         <f>1/(P76*R7)</f>
         <v>7.374223402097967E-3</v>
       </c>
       <c r="I75" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J75">
         <f>Y20/(Z20*P74)</f>
         <v>2.0997065332040696</v>
       </c>
       <c r="L75" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M75">
         <f>Y13/(Z13*P75)</f>
         <v>0.20943769790533015</v>
       </c>
       <c r="O75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P75" s="1">
-        <f>'Room Dimensions'!F63</f>
+        <f>'Room Dimensions'!E63</f>
         <v>10.158914062499999</v>
       </c>
     </row>
     <row r="76" spans="6:45">
       <c r="I76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J76">
         <f>Y19/(Z19*P74)</f>
         <v>1.2248288110357076E-3</v>
       </c>
       <c r="L76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M76">
         <f>M74</f>
         <v>1.8034024674596368E-2</v>
       </c>
       <c r="O76" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P76" s="1">
         <f>P74+P75</f>
@@ -6301,7 +6494,7 @@
     </row>
     <row r="77" spans="6:45">
       <c r="L77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M77">
         <f>Y15/(Z15*P75)</f>
@@ -6310,21 +6503,21 @@
     </row>
     <row r="78" spans="6:45">
       <c r="F78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G78">
         <f>G74+G75</f>
         <v>1.0323912762937154E-2</v>
       </c>
       <c r="I78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J78">
         <f>J74+J75+J76</f>
         <v>2.1021561908261415</v>
       </c>
       <c r="L78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M78">
         <f>SUM(M74:M77)</f>
@@ -6333,65 +6526,65 @@
     </row>
     <row r="79" spans="6:45">
       <c r="Z79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AC79" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AI79" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AL79" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AP79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AS79" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="6:45">
       <c r="Z80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA80">
         <f>1/(S7*AK87)</f>
         <v>3.7021611365634696E-3</v>
       </c>
       <c r="AC80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AD80">
         <f>AB68/(AC68*AK91)</f>
         <v>6.7487312385271581E-3</v>
       </c>
       <c r="AF80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AG80">
         <f>AB66/(AC66*AK90)</f>
         <v>0.1933404940923738</v>
       </c>
       <c r="AI80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AJ80">
         <f>AB68/(AC68*AK88)</f>
         <v>3.4227527488983017E-3</v>
       </c>
       <c r="AL80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AM80">
         <f>AJ80</f>
         <v>3.4227527488983017E-3</v>
       </c>
       <c r="AP80" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AQ80">
         <f>AB67/(AC67*AK92)</f>
@@ -6404,49 +6597,49 @@
     </row>
     <row r="81" spans="8:54">
       <c r="I81" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J81">
         <f>1/(SUM(G78,J78,M78))</f>
         <v>0.42109351142959611</v>
       </c>
       <c r="Z81" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AA81">
         <f>1/(AK87*R7)</f>
         <v>9.255402841408673E-3</v>
       </c>
       <c r="AC81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD81">
         <f>AB69/(AC69*AK91)</f>
         <v>11.569253551760841</v>
       </c>
       <c r="AF81" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG81">
         <f>AG80</f>
         <v>0.1933404940923738</v>
       </c>
       <c r="AI81" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AJ81">
         <f>AB69/(AC69*AK88)</f>
         <v>5.8675761409685165</v>
       </c>
       <c r="AL81" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM81">
         <f>AJ81</f>
         <v>5.8675761409685165</v>
       </c>
       <c r="AP81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AQ81">
         <f>AB62/(AC62*AK92)</f>
@@ -6455,35 +6648,35 @@
     </row>
     <row r="82" spans="8:54">
       <c r="Z82" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA82">
         <f>AA80+AA81</f>
         <v>1.2957563977972143E-2</v>
       </c>
       <c r="AC82" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AD82">
         <f>AD80</f>
         <v>6.7487312385271581E-3</v>
       </c>
       <c r="AI82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ82">
         <f>AJ80</f>
         <v>3.4227527488983017E-3</v>
       </c>
       <c r="AL82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM82">
         <f>AJ82</f>
         <v>3.4227527488983017E-3</v>
       </c>
       <c r="AP82" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AQ82">
         <f>AQ80</f>
@@ -6492,28 +6685,28 @@
     </row>
     <row r="83" spans="8:54">
       <c r="AC83" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AD83">
         <f>SUM(AD80:AD82)</f>
         <v>11.582751014237896</v>
       </c>
       <c r="AI83" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AJ83">
         <f>SUM(AJ80:AJ82)</f>
         <v>5.8744216464663133</v>
       </c>
       <c r="AL83" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM83">
         <f>AJ83</f>
         <v>5.8744216464663133</v>
       </c>
       <c r="AP83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ83">
         <f>AB64/(AC64*AK92)</f>
@@ -6522,7 +6715,7 @@
     </row>
     <row r="84" spans="8:54">
       <c r="AP84" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AQ84">
         <f>SUM(AQ80:AQ83)</f>
@@ -6531,75 +6724,75 @@
     </row>
     <row r="86" spans="8:54">
       <c r="AR86" s="23"/>
-      <c r="AT86" s="34" t="s">
+      <c r="AT86" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AU86" s="35"/>
-      <c r="AV86" s="35"/>
-      <c r="AW86" s="35"/>
-      <c r="AX86" s="35"/>
-      <c r="AY86" s="35"/>
-      <c r="AZ86" s="35"/>
-      <c r="BA86" s="35"/>
-      <c r="BB86" s="35"/>
+      <c r="AU86" s="38"/>
+      <c r="AV86" s="38"/>
+      <c r="AW86" s="38"/>
+      <c r="AX86" s="38"/>
+      <c r="AY86" s="38"/>
+      <c r="AZ86" s="38"/>
+      <c r="BA86" s="38"/>
+      <c r="BB86" s="38"/>
     </row>
     <row r="87" spans="8:54">
-      <c r="H87" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
+      <c r="H87" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="38"/>
+      <c r="O87" s="38"/>
       <c r="AJ87" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK87" s="1">
         <f>AK92+AK88+AK89+AK90</f>
         <v>10.804499999999999</v>
       </c>
-      <c r="AT87" s="35"/>
-      <c r="AU87" s="35"/>
-      <c r="AV87" s="35"/>
-      <c r="AW87" s="35"/>
-      <c r="AX87" s="35"/>
-      <c r="AY87" s="35"/>
-      <c r="AZ87" s="35"/>
-      <c r="BA87" s="35"/>
-      <c r="BB87" s="35"/>
+      <c r="AT87" s="38"/>
+      <c r="AU87" s="38"/>
+      <c r="AV87" s="38"/>
+      <c r="AW87" s="38"/>
+      <c r="AX87" s="38"/>
+      <c r="AY87" s="38"/>
+      <c r="AZ87" s="38"/>
+      <c r="BA87" s="38"/>
+      <c r="BB87" s="38"/>
     </row>
     <row r="88" spans="8:54">
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
       <c r="AJ88" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK88" s="1">
-        <f>'Room Dimensions'!F28</f>
+        <f>'Room Dimensions'!E28</f>
         <v>1.2173437499999999</v>
       </c>
-      <c r="AT88" s="35"/>
-      <c r="AU88" s="35"/>
-      <c r="AV88" s="35"/>
-      <c r="AW88" s="35"/>
-      <c r="AX88" s="35"/>
-      <c r="AY88" s="35"/>
-      <c r="AZ88" s="35"/>
-      <c r="BA88" s="35"/>
-      <c r="BB88" s="35"/>
+      <c r="AT88" s="38"/>
+      <c r="AU88" s="38"/>
+      <c r="AV88" s="38"/>
+      <c r="AW88" s="38"/>
+      <c r="AX88" s="38"/>
+      <c r="AY88" s="38"/>
+      <c r="AZ88" s="38"/>
+      <c r="BA88" s="38"/>
+      <c r="BB88" s="38"/>
     </row>
     <row r="89" spans="8:54">
       <c r="AJ89" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK89" s="1">
         <f>AK88</f>
@@ -6608,16 +6801,16 @@
     </row>
     <row r="90" spans="8:54">
       <c r="AJ90" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AK90" s="1">
-        <f>'Room Dimensions'!F26</f>
+        <f>'Room Dimensions'!E26</f>
         <v>1.47</v>
       </c>
     </row>
     <row r="91" spans="8:54">
       <c r="AJ91" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK91">
         <f>AK90*0.42</f>
@@ -6626,43 +6819,43 @@
     </row>
     <row r="92" spans="8:54">
       <c r="AJ92" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AK92" s="1">
-        <f>'Room Dimensions'!F20</f>
+        <f>'Room Dimensions'!E20</f>
         <v>6.8998124999999986</v>
       </c>
     </row>
     <row r="96" spans="8:54">
-      <c r="AC96" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD96" s="31"/>
-      <c r="AE96" s="31"/>
-      <c r="AF96" s="31"/>
-    </row>
-    <row r="97" spans="29:37" ht="15.5">
-      <c r="AC97" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF97" s="33"/>
-    </row>
-    <row r="98" spans="29:37" ht="15.5">
+      <c r="AC96" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD96" s="34"/>
+      <c r="AE96" s="34"/>
+      <c r="AF96" s="34"/>
+    </row>
+    <row r="97" spans="29:37" ht="15.75">
+      <c r="AC97" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF97" s="36"/>
+    </row>
+    <row r="98" spans="29:37" ht="15.75">
       <c r="AC98" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD98" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE98" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF98" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AI98" t="s">
         <v>3</v>
@@ -6674,7 +6867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="29:37" ht="15.5">
+    <row r="99" spans="29:37" ht="15.75">
       <c r="AC99" s="13">
         <v>10</v>
       </c>
@@ -6688,7 +6881,7 @@
         <v>6</v>
       </c>
       <c r="AI99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ99">
         <f>0.27</f>
@@ -6697,7 +6890,7 @@
     </row>
     <row r="100" spans="29:37">
       <c r="AI100" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ100">
         <v>0.22500000000000001</v>
@@ -6705,7 +6898,7 @@
     </row>
     <row r="101" spans="29:37">
       <c r="AI101" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ101">
         <v>0.22500000000000001</v>
@@ -6713,7 +6906,7 @@
     </row>
     <row r="102" spans="29:37">
       <c r="AI102" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ102">
         <v>0.35</v>
@@ -6721,7 +6914,7 @@
     </row>
     <row r="103" spans="29:37">
       <c r="AI103" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ103">
         <f>10/1000</f>
@@ -6730,7 +6923,7 @@
     </row>
     <row r="104" spans="29:37">
       <c r="AI104" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ104">
         <f>0.5/1000</f>
@@ -6739,7 +6932,7 @@
     </row>
     <row r="105" spans="29:37">
       <c r="AI105" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ105">
         <f>100/1000</f>
@@ -6751,12 +6944,12 @@
     </row>
     <row r="106" spans="29:37">
       <c r="AI106" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="29:37">
       <c r="AI107" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AJ107">
         <f>0.2</f>
@@ -6766,9 +6959,9 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="108" spans="29:37" ht="15.5">
+    <row r="108" spans="29:37" ht="15.75">
       <c r="AI108" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ108">
         <f>40/1000</f>
@@ -6778,9 +6971,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="109" spans="29:37" ht="19">
+    <row r="109" spans="29:37" ht="18.75">
       <c r="AI109" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AJ109">
         <v>5.3999999999999999E-2</v>
@@ -6791,7 +6984,7 @@
     </row>
     <row r="110" spans="29:37">
       <c r="AI110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ110">
         <v>0.24</v>
@@ -6802,7 +6995,7 @@
     </row>
     <row r="111" spans="29:37">
       <c r="AI111" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ111">
         <f>4/1000</f>
@@ -6815,7 +7008,7 @@
     </row>
     <row r="112" spans="29:37">
       <c r="AI112" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJ112">
         <v>1</v>
@@ -6826,7 +7019,7 @@
     </row>
     <row r="113" spans="7:50">
       <c r="AI113" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ113">
         <f>5/1000</f>
@@ -6838,7 +7031,7 @@
     </row>
     <row r="114" spans="7:50">
       <c r="AI114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ114">
         <f>6/1000</f>
@@ -6850,7 +7043,7 @@
     </row>
     <row r="115" spans="7:50">
       <c r="AI115" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ115">
         <f>35/1000</f>
@@ -6862,102 +7055,102 @@
     </row>
     <row r="116" spans="7:50">
       <c r="G116" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H116">
         <f>1/(U7*L122)</f>
         <v>1.0369356477736994E-3</v>
       </c>
       <c r="AR116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AS116">
         <f>AJ110/(AK110*AX116)</f>
         <v>2.6169336486312447E-2</v>
       </c>
       <c r="AU116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AV116">
         <f>AJ111/(AK111*AX117)</f>
         <v>3.3485167640352554E-3</v>
       </c>
       <c r="AW116" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AX116" s="1">
-        <f>'Room Dimensions'!F6</f>
+        <f>'Room Dimensions'!E6</f>
         <v>7.0007929687499999</v>
       </c>
     </row>
     <row r="117" spans="7:50">
       <c r="G117" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H117">
         <f>Y21/(Z21*L122)</f>
         <v>1.7378809739224008E-5</v>
       </c>
       <c r="AO117" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AP117">
         <f>1/(AX118*AD99)</f>
         <v>4.8513515562226169E-3</v>
       </c>
       <c r="AR117" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AS117">
         <f>AJ105/(AK105*AX116)</f>
         <v>0.30391693969033073</v>
       </c>
       <c r="AU117" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AV117">
         <f>AJ112/(AK112*AX117)</f>
         <v>5.7403144526318659</v>
       </c>
       <c r="AW117" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AX117" s="1">
-        <f>'Room Dimensions'!F13</f>
+        <f>'Room Dimensions'!E13</f>
         <v>1.2443320312500001</v>
       </c>
     </row>
     <row r="118" spans="7:50">
       <c r="G118" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H118">
         <f>Y22/(Z22*L122)</f>
         <v>2.4886455546568783E-4</v>
       </c>
       <c r="AO118" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AP118">
         <f>1/(AC99*AX118)</f>
         <v>1.212837889055654E-2</v>
       </c>
       <c r="AR118" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AS118">
         <f>AS116</f>
         <v>2.6169336486312447E-2</v>
       </c>
       <c r="AU118" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AV118">
         <f>AV116</f>
         <v>3.3485167640352554E-3</v>
       </c>
       <c r="AW118" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AX118" s="1">
         <f>AX116+AX117</f>
@@ -6966,14 +7159,14 @@
     </row>
     <row r="119" spans="7:50">
       <c r="G119" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H119">
         <f>Y23/(Z23*L122) *L123</f>
         <v>0.58118715509534558</v>
       </c>
       <c r="AR119" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AS119">
         <f>AJ107/(AK107*AX116)</f>
@@ -6982,7 +7175,7 @@
     </row>
     <row r="120" spans="7:50">
       <c r="G120" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H120">
         <f>Y13/(Z13*L122) *3</f>
@@ -6991,28 +7184,28 @@
     </row>
     <row r="121" spans="7:50">
       <c r="G121" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H121">
         <f>H118</f>
         <v>2.4886455546568783E-4</v>
       </c>
       <c r="AO121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AP121">
         <f>SUM(AP116:AP119)</f>
         <v>1.6979730446779157E-2</v>
       </c>
       <c r="AR121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AS121">
         <f>SUM(AS116:AS119)</f>
         <v>0.3806104228342182</v>
       </c>
       <c r="AU121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AV121">
         <f>SUM(AV116:AV117)</f>
@@ -7021,39 +7214,39 @@
     </row>
     <row r="122" spans="7:50">
       <c r="G122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H122">
         <f>Y15/Z15</f>
         <v>0.17050298380221654</v>
       </c>
       <c r="K122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L122">
         <v>160.72999999999999</v>
       </c>
       <c r="M122" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="7:50">
       <c r="G123" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H123">
         <f>1/(T7*L122)</f>
         <v>8.2954851821895944E-4</v>
       </c>
       <c r="K123" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L123">
         <f>ROUND(L125/L124 * L126,0)</f>
         <v>308</v>
       </c>
       <c r="AS123" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AT123">
         <f xml:space="preserve"> (SUM(AP121,AV121,AS121))^-1</f>
@@ -7062,7 +7255,7 @@
     </row>
     <row r="124" spans="7:50">
       <c r="K124" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L124">
         <f>76/1000 * 4 * 20/100</f>
@@ -7071,14 +7264,14 @@
     </row>
     <row r="125" spans="7:50">
       <c r="G125" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H125">
         <f>SUM(H116:H123)</f>
         <v>0.79378416004789887</v>
       </c>
       <c r="K125" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L125">
         <f>15.85 * 4.5 * 3.15/3</f>
@@ -7094,7 +7287,7 @@
         <v>1.2597883030818573</v>
       </c>
       <c r="K126" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L126">
         <v>0.25</v>
@@ -7139,54 +7332,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53914A99-8B3B-4844-84DB-D4D00BF9CCAC}">
   <dimension ref="C2:AF211"/>
   <sheetViews>
-    <sheetView topLeftCell="I168" workbookViewId="0">
-      <selection activeCell="T200" sqref="T200"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:27" ht="46">
-      <c r="C2" s="36" t="s">
+    <row r="2" spans="3:27" ht="46.5">
+      <c r="C2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="S2" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="3:27" ht="15.5">
-      <c r="S3" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="33"/>
-    </row>
-    <row r="4" spans="3:27" ht="15.5">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="S2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+    </row>
+    <row r="3" spans="3:27" ht="15.75">
+      <c r="S3" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="36"/>
+    </row>
+    <row r="4" spans="3:27" ht="15.75">
       <c r="S4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
         <v>3</v>
@@ -7198,7 +7391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:27" ht="15.5">
+    <row r="5" spans="3:27" ht="15.75">
       <c r="S5" s="13">
         <v>10</v>
       </c>
@@ -7212,7 +7405,7 @@
         <v>6</v>
       </c>
       <c r="Y5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z5">
         <f>0.27</f>
@@ -7221,7 +7414,7 @@
     </row>
     <row r="6" spans="3:27">
       <c r="Y6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z6">
         <v>0.22500000000000001</v>
@@ -7229,7 +7422,7 @@
     </row>
     <row r="7" spans="3:27">
       <c r="Y7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z7">
         <v>0.22500000000000001</v>
@@ -7237,7 +7430,7 @@
     </row>
     <row r="8" spans="3:27">
       <c r="Y8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z8">
         <v>0.35</v>
@@ -7245,7 +7438,7 @@
     </row>
     <row r="9" spans="3:27">
       <c r="Y9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z9">
         <f>10/1000</f>
@@ -7254,7 +7447,7 @@
     </row>
     <row r="10" spans="3:27">
       <c r="Y10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z10">
         <f>0.5/1000</f>
@@ -7263,7 +7456,7 @@
     </row>
     <row r="11" spans="3:27">
       <c r="Y11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z11">
         <f>100/1000</f>
@@ -7275,12 +7468,12 @@
     </row>
     <row r="12" spans="3:27">
       <c r="Y12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:27">
       <c r="Y13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Z13">
         <f>0.2</f>
@@ -7290,9 +7483,9 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="14" spans="3:27" ht="15.5">
+    <row r="14" spans="3:27" ht="15.75">
       <c r="Y14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z14">
         <f>40/1000</f>
@@ -7302,9 +7495,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="3:27" ht="19">
+    <row r="15" spans="3:27" ht="18.75">
       <c r="Y15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z15">
         <v>5.3999999999999999E-2</v>
@@ -7315,7 +7508,7 @@
     </row>
     <row r="16" spans="3:27">
       <c r="Y16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z16">
         <v>0.24</v>
@@ -7326,7 +7519,7 @@
     </row>
     <row r="17" spans="8:27">
       <c r="Y17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z17">
         <f>4/1000</f>
@@ -7339,7 +7532,7 @@
     </row>
     <row r="18" spans="8:27">
       <c r="Y18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -7350,7 +7543,7 @@
     </row>
     <row r="19" spans="8:27">
       <c r="Y19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z19">
         <f>5/1000</f>
@@ -7362,7 +7555,7 @@
     </row>
     <row r="20" spans="8:27">
       <c r="Y20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z20">
         <f>6/1000</f>
@@ -7374,7 +7567,7 @@
     </row>
     <row r="21" spans="8:27">
       <c r="Y21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z21">
         <f>35/1000</f>
@@ -7386,21 +7579,21 @@
     </row>
     <row r="32" spans="8:27">
       <c r="H32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I32">
         <f>Z16/(AA16*O32)</f>
         <v>3.0442769147851712E-2</v>
       </c>
       <c r="K32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L32">
         <f>Z17/(AA17*O33)</f>
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O32" s="1">
         <f>'Room Dimensions'!O66</f>
@@ -7409,28 +7602,28 @@
     </row>
     <row r="33" spans="5:15">
       <c r="E33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F33">
         <f>1/(O34*T5)</f>
         <v>5.8029464460579864E-3</v>
       </c>
       <c r="H33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I33">
         <f>Z11/(AA11*O32)</f>
         <v>0.35354634382700134</v>
       </c>
       <c r="K33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L33">
         <f>Z18/(AA18*O33)</f>
         <v>8.1632653061224474</v>
       </c>
       <c r="N33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O33" s="1">
         <f>'Room Dimensions'!O71</f>
@@ -7439,28 +7632,28 @@
     </row>
     <row r="34" spans="5:15">
       <c r="E34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <f>1/(S5*O34)</f>
         <v>1.4507366115144965E-2</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I34">
         <f>I32</f>
         <v>3.0442769147851712E-2</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L34">
         <f>L32</f>
         <v>4.7619047619047623E-3</v>
       </c>
       <c r="N34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O34" s="1">
         <f>O32+O33</f>
@@ -7469,7 +7662,7 @@
     </row>
     <row r="35" spans="5:15">
       <c r="H35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I35">
         <f>Z13/(AA13*O32)</f>
@@ -7478,21 +7671,21 @@
     </row>
     <row r="37" spans="5:15">
       <c r="E37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F37">
         <f>SUM(F32:F35)</f>
         <v>2.0310312561202953E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I37">
         <f>SUM(I32:I35)</f>
         <v>0.44276381419409278</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L37">
         <f>SUM(L32:L34)</f>
@@ -7501,7 +7694,7 @@
     </row>
     <row r="39" spans="5:15">
       <c r="I39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <f xml:space="preserve"> (SUM(F37,L37,I37))^-1</f>
@@ -7509,52 +7702,52 @@
       </c>
     </row>
     <row r="41" spans="5:15" ht="15" customHeight="1">
-      <c r="E41" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
+      <c r="E41" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
       <c r="L41" s="26"/>
     </row>
     <row r="42" spans="5:15">
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="5:15">
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="71" spans="7:17">
       <c r="J71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K71">
         <f>Z16/(AA16*Q71)</f>
         <v>2.734439911793804E-2</v>
       </c>
       <c r="M71" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N71">
         <f>Z17/(AA17*Q72)</f>
         <v>2.189381499726327E-3</v>
       </c>
       <c r="P71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q71" s="1">
         <f>'Room Dimensions'!O50</f>
@@ -7563,28 +7756,28 @@
     </row>
     <row r="72" spans="7:17">
       <c r="G72" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H72">
         <f>1/(Q73*T5)</f>
         <v>4.6495003240120542E-3</v>
       </c>
       <c r="J72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K72">
         <f>Z11/(AA11*Q71)</f>
         <v>0.31756350039449327</v>
       </c>
       <c r="M72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N72">
         <f>Z18/(AA18*Q72)</f>
         <v>3.7532254281022746</v>
       </c>
       <c r="P72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q72" s="1">
         <f>'Room Dimensions'!O57</f>
@@ -7593,28 +7786,28 @@
     </row>
     <row r="73" spans="7:17">
       <c r="G73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H73">
         <f>1/(Q73*S5)</f>
         <v>1.1623750810030134E-2</v>
       </c>
       <c r="J73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K73">
         <f>K71</f>
         <v>2.734439911793804E-2</v>
       </c>
       <c r="M73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N73">
         <f>N71</f>
         <v>2.189381499726327E-3</v>
       </c>
       <c r="P73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q73" s="1">
         <f>Q71+Q72</f>
@@ -7623,7 +7816,7 @@
     </row>
     <row r="74" spans="7:17">
       <c r="J74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K74">
         <f>Z13/(AA13*Q71)</f>
@@ -7632,21 +7825,21 @@
     </row>
     <row r="76" spans="7:17">
       <c r="G76" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H76">
         <f>SUM(H71:H74)</f>
         <v>1.627325113404219E-2</v>
       </c>
       <c r="J76" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K76">
         <f>SUM(K71:K74)</f>
         <v>0.39770069508141997</v>
       </c>
       <c r="M76" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N76">
         <f>SUM(N71:N73)</f>
@@ -7655,7 +7848,7 @@
     </row>
     <row r="78" spans="7:17">
       <c r="K78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L78">
         <f xml:space="preserve"> (SUM(H76,N76,K76))^-1</f>
@@ -7663,64 +7856,64 @@
       </c>
     </row>
     <row r="83" spans="8:14">
-      <c r="H83" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="35"/>
+      <c r="H83" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+      <c r="N83" s="38"/>
     </row>
     <row r="84" spans="8:14">
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="35"/>
-      <c r="N84" s="35"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
     </row>
     <row r="85" spans="8:14">
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="35"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
     </row>
     <row r="104" spans="9:29">
-      <c r="U104" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="V104" s="31"/>
-      <c r="W104" s="31"/>
-      <c r="X104" s="31"/>
-    </row>
-    <row r="105" spans="9:29" ht="15.5">
-      <c r="U105" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="V105" s="32"/>
-      <c r="W105" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="X105" s="33"/>
-    </row>
-    <row r="106" spans="9:29" ht="15.5">
+      <c r="U104" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="V104" s="34"/>
+      <c r="W104" s="34"/>
+      <c r="X104" s="34"/>
+    </row>
+    <row r="105" spans="9:29" ht="15.75">
+      <c r="U105" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="V105" s="35"/>
+      <c r="W105" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X105" s="36"/>
+    </row>
+    <row r="106" spans="9:29" ht="15.75">
       <c r="U106" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V106" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="W106" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA106" t="s">
         <v>3</v>
@@ -7732,7 +7925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="9:29" ht="15.5">
+    <row r="107" spans="9:29" ht="15.75">
       <c r="U107" s="13">
         <v>10</v>
       </c>
@@ -7746,7 +7939,7 @@
         <v>6</v>
       </c>
       <c r="AA107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB107">
         <f>0.27</f>
@@ -7755,7 +7948,7 @@
     </row>
     <row r="108" spans="9:29">
       <c r="AA108" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB108">
         <v>0.22500000000000001</v>
@@ -7763,7 +7956,7 @@
     </row>
     <row r="109" spans="9:29">
       <c r="AA109" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB109">
         <v>0.22500000000000001</v>
@@ -7771,7 +7964,7 @@
     </row>
     <row r="110" spans="9:29">
       <c r="AA110" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB110">
         <v>0.35</v>
@@ -7779,7 +7972,7 @@
     </row>
     <row r="111" spans="9:29">
       <c r="AA111" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB111">
         <f>10/1000</f>
@@ -7788,28 +7981,28 @@
     </row>
     <row r="112" spans="9:29">
       <c r="I112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J112">
         <f>AB118/(AC118*P112)</f>
         <v>1.9095008767592618E-2</v>
       </c>
       <c r="L112" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M112">
         <f>AB119/(AC119*P113)</f>
         <v>2.189381499726327E-3</v>
       </c>
       <c r="O112" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P112" s="1">
         <f>'Room Dimensions'!N5</f>
         <v>9.5944500000000001</v>
       </c>
       <c r="AA112" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB112">
         <f>0.5/1000</f>
@@ -7818,35 +8011,35 @@
     </row>
     <row r="113" spans="6:29">
       <c r="F113" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G113">
         <f>1/(P114*V107)</f>
         <v>3.4789944836193716E-3</v>
       </c>
       <c r="I113" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J113">
         <f>AB113/(AC113*P112)</f>
         <v>0.22175941033285756</v>
       </c>
       <c r="L113" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M113">
         <f>AB120/(AC120*P113)</f>
         <v>3.7532254281022746</v>
       </c>
       <c r="O113" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P113" s="1">
         <f>'Room Dimensions'!O57</f>
         <v>1.9031250000000002</v>
       </c>
       <c r="AA113" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB113">
         <f>100/1000</f>
@@ -7858,47 +8051,47 @@
     </row>
     <row r="114" spans="6:29">
       <c r="F114" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G114">
         <f>1/(P114*U107)</f>
         <v>8.6974862090484287E-3</v>
       </c>
       <c r="I114" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J114">
         <f>J112</f>
         <v>1.9095008767592618E-2</v>
       </c>
       <c r="L114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M114">
         <f>M112</f>
         <v>2.189381499726327E-3</v>
       </c>
       <c r="O114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P114" s="1">
         <f>P112+P113</f>
         <v>11.497575000000001</v>
       </c>
       <c r="AA114" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="6:29">
       <c r="I115" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J115">
         <f>AB115/(P112*AC115)</f>
         <v>1.7771001339546982E-2</v>
       </c>
       <c r="AA115" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB115">
         <f>0.2</f>
@@ -7908,9 +8101,9 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="116" spans="6:29" ht="15.5">
+    <row r="116" spans="6:29" ht="15.75">
       <c r="AA116" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB116">
         <f>40/1000</f>
@@ -7920,30 +8113,30 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="117" spans="6:29" ht="19">
+    <row r="117" spans="6:29" ht="18.75">
       <c r="F117" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G117">
         <f>SUM(G112:G115)</f>
         <v>1.21764806926678E-2</v>
       </c>
       <c r="I117" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J117">
         <f>SUM(J112:J115)</f>
         <v>0.27772042920758977</v>
       </c>
       <c r="L117" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M117">
         <f>SUM(M112:M114)</f>
         <v>3.7576041911017275</v>
       </c>
       <c r="AA117" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB117">
         <v>5.3999999999999999E-2</v>
@@ -7954,7 +8147,7 @@
     </row>
     <row r="118" spans="6:29">
       <c r="AA118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB118">
         <v>0.24</v>
@@ -7965,14 +8158,14 @@
     </row>
     <row r="119" spans="6:29">
       <c r="J119" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K119">
         <f xml:space="preserve"> (SUM(G117,M117,J117))^-1</f>
         <v>0.24706602297216015</v>
       </c>
       <c r="AA119" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB119">
         <f>4/1000</f>
@@ -7985,7 +8178,7 @@
     </row>
     <row r="120" spans="6:29">
       <c r="AA120" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB120">
         <v>1</v>
@@ -7996,7 +8189,7 @@
     </row>
     <row r="121" spans="6:29">
       <c r="AA121" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AB121">
         <f>5/1000</f>
@@ -8008,7 +8201,7 @@
     </row>
     <row r="122" spans="6:29">
       <c r="AA122" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB122">
         <f>6/1000</f>
@@ -8019,17 +8212,17 @@
       </c>
     </row>
     <row r="123" spans="6:29">
-      <c r="I123" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="J123" s="35"/>
-      <c r="K123" s="35"/>
-      <c r="L123" s="35"/>
-      <c r="M123" s="35"/>
-      <c r="N123" s="35"/>
-      <c r="O123" s="35"/>
+      <c r="I123" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J123" s="38"/>
+      <c r="K123" s="38"/>
+      <c r="L123" s="38"/>
+      <c r="M123" s="38"/>
+      <c r="N123" s="38"/>
+      <c r="O123" s="38"/>
       <c r="AA123" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB123">
         <f>35/1000</f>
@@ -8040,54 +8233,54 @@
       </c>
     </row>
     <row r="124" spans="6:29">
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="35"/>
-      <c r="O124" s="35"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="38"/>
+      <c r="M124" s="38"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
     </row>
     <row r="125" spans="6:29">
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
-      <c r="M125" s="35"/>
-      <c r="N125" s="35"/>
-      <c r="O125" s="35"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="38"/>
+      <c r="K125" s="38"/>
+      <c r="L125" s="38"/>
+      <c r="M125" s="38"/>
+      <c r="N125" s="38"/>
+      <c r="O125" s="38"/>
     </row>
     <row r="146" spans="8:28">
-      <c r="S146" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="T146" s="39"/>
-      <c r="U146" s="42"/>
+      <c r="S146" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="T146" s="42"/>
+      <c r="U146" s="45"/>
       <c r="V146" s="24"/>
       <c r="W146" s="24"/>
     </row>
     <row r="147" spans="8:28" ht="15.75" customHeight="1">
       <c r="T147" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U147" s="25"/>
       <c r="V147" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W147" s="27"/>
     </row>
-    <row r="148" spans="8:28" ht="15.5">
-      <c r="T148" s="28" t="s">
-        <v>70</v>
+    <row r="148" spans="8:28" ht="15.75">
+      <c r="T148" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V148" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="V148" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="W148" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z148" t="s">
         <v>3</v>
@@ -8099,8 +8292,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="8:28" ht="15.5">
-      <c r="T149" s="28">
+    <row r="149" spans="8:28" ht="15.75">
+      <c r="T149" s="13">
         <v>10</v>
       </c>
       <c r="U149" s="5">
@@ -8113,7 +8306,7 @@
         <v>6</v>
       </c>
       <c r="Z149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA149">
         <f>0.27</f>
@@ -8122,7 +8315,7 @@
     </row>
     <row r="150" spans="8:28">
       <c r="Z150" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA150">
         <v>0.22500000000000001</v>
@@ -8130,7 +8323,7 @@
     </row>
     <row r="151" spans="8:28">
       <c r="Z151" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA151">
         <v>0.22500000000000001</v>
@@ -8138,7 +8331,7 @@
     </row>
     <row r="152" spans="8:28">
       <c r="Z152" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA152">
         <v>0.35</v>
@@ -8146,28 +8339,28 @@
     </row>
     <row r="153" spans="8:28">
       <c r="K153" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L153">
         <f>AA160/(AB160*R153)</f>
         <v>1.8096334891565216E-2</v>
       </c>
       <c r="N153" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O153">
         <f>AA160/(AB160*R154)</f>
         <v>3.6311580309052682E-2</v>
       </c>
       <c r="Q153" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R153" s="1">
         <f>'Room Dimensions'!O20</f>
         <v>10.123934375000001</v>
       </c>
       <c r="Z153" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA153">
         <f>10/1000</f>
@@ -8176,35 +8369,35 @@
     </row>
     <row r="154" spans="8:28">
       <c r="H154" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I154">
         <f>1/(R155*U149)</f>
         <v>2.6369004553597471E-3</v>
       </c>
       <c r="K154" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L154">
         <f>AA155/(AB155*R153)</f>
         <v>0.21016133606339038</v>
       </c>
       <c r="N154" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O154">
         <f>AA162/(AB162*R154)</f>
         <v>1.4157193513350896</v>
       </c>
       <c r="Q154" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R154" s="1">
         <f>'Room Dimensions'!O27</f>
         <v>5.0453906250000005</v>
       </c>
       <c r="Z154" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA154">
         <f>0.5/1000</f>
@@ -8213,35 +8406,35 @@
     </row>
     <row r="155" spans="8:28">
       <c r="H155" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I155">
         <f>1/(R155*T149)</f>
         <v>6.5922511383993678E-3</v>
       </c>
       <c r="K155" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L155">
         <f>L153</f>
         <v>1.8096334891565216E-2</v>
       </c>
       <c r="N155" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O155">
         <f>O153</f>
         <v>3.6311580309052682E-2</v>
       </c>
       <c r="Q155" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R155" s="1">
         <f>R153+R154</f>
         <v>15.169325000000001</v>
       </c>
       <c r="Z155" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA155">
         <f>100/1000</f>
@@ -8253,19 +8446,19 @@
     </row>
     <row r="156" spans="8:28">
       <c r="K156" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L156">
         <f>AA157/(AB157*R153)</f>
         <v>1.6841573392974166E-2</v>
       </c>
       <c r="Z156" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="8:28">
       <c r="Z157" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AA157">
         <f>0.2</f>
@@ -8275,30 +8468,30 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="158" spans="8:28" ht="15.5">
+    <row r="158" spans="8:28" ht="15.75">
       <c r="H158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I158">
         <f>SUM(I153:I156)</f>
         <v>9.2291515937591145E-3</v>
       </c>
       <c r="K158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L158">
         <f>SUM(L153:L156)</f>
         <v>0.26319557923949494</v>
       </c>
       <c r="N158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O158">
         <f>SUM(O153:O155)</f>
         <v>1.4883425119531952</v>
       </c>
       <c r="Z158" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA158">
         <f>40/1000</f>
@@ -8308,7 +8501,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="159" spans="8:28" ht="19">
+    <row r="159" spans="8:28" ht="18.75">
       <c r="M159" t="s">
         <v>10</v>
       </c>
@@ -8317,7 +8510,7 @@
         <v>0.56793423667825627</v>
       </c>
       <c r="Z159" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA159">
         <v>5.3999999999999999E-2</v>
@@ -8328,7 +8521,7 @@
     </row>
     <row r="160" spans="8:28">
       <c r="Z160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA160">
         <v>0.24</v>
@@ -8339,7 +8532,7 @@
     </row>
     <row r="161" spans="11:28">
       <c r="Z161" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA161">
         <f>4/1000</f>
@@ -8352,7 +8545,7 @@
     </row>
     <row r="162" spans="11:28">
       <c r="Z162" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA162">
         <v>1</v>
@@ -8363,7 +8556,7 @@
     </row>
     <row r="163" spans="11:28">
       <c r="Z163" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA163">
         <f>5/1000</f>
@@ -8375,7 +8568,7 @@
     </row>
     <row r="164" spans="11:28">
       <c r="Z164" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA164">
         <f>6/1000</f>
@@ -8386,17 +8579,17 @@
       </c>
     </row>
     <row r="165" spans="11:28">
-      <c r="K165" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="L165" s="35"/>
-      <c r="M165" s="35"/>
-      <c r="N165" s="35"/>
-      <c r="O165" s="35"/>
-      <c r="P165" s="35"/>
-      <c r="Q165" s="35"/>
+      <c r="K165" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
       <c r="Z165" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AA165">
         <f>35/1000</f>
@@ -8407,53 +8600,53 @@
       </c>
     </row>
     <row r="166" spans="11:28">
-      <c r="K166" s="35"/>
-      <c r="L166" s="35"/>
-      <c r="M166" s="35"/>
-      <c r="N166" s="35"/>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
+      <c r="M166" s="38"/>
+      <c r="N166" s="38"/>
+      <c r="O166" s="38"/>
+      <c r="P166" s="38"/>
+      <c r="Q166" s="38"/>
     </row>
     <row r="167" spans="11:28">
-      <c r="K167" s="35"/>
-      <c r="L167" s="35"/>
-      <c r="M167" s="35"/>
-      <c r="N167" s="35"/>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
+      <c r="K167" s="38"/>
+      <c r="L167" s="38"/>
+      <c r="M167" s="38"/>
+      <c r="N167" s="38"/>
+      <c r="O167" s="38"/>
+      <c r="P167" s="38"/>
+      <c r="Q167" s="38"/>
     </row>
     <row r="192" spans="24:27">
-      <c r="X192" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y192" s="31"/>
-      <c r="Z192" s="31"/>
-      <c r="AA192" s="31"/>
-    </row>
-    <row r="193" spans="12:32" ht="15.5">
-      <c r="X193" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y193" s="32"/>
-      <c r="Z193" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA193" s="33"/>
-    </row>
-    <row r="194" spans="12:32" ht="15.5">
+      <c r="X192" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y192" s="34"/>
+      <c r="Z192" s="34"/>
+      <c r="AA192" s="34"/>
+    </row>
+    <row r="193" spans="12:32" ht="15.75">
+      <c r="X193" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y193" s="35"/>
+      <c r="Z193" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA193" s="36"/>
+    </row>
+    <row r="194" spans="12:32" ht="15.75">
       <c r="X194" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y194" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z194" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA194" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AD194" t="s">
         <v>3</v>
@@ -8465,23 +8658,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="12:32" ht="15.5">
+    <row r="195" spans="12:32" ht="15.75">
       <c r="O195" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P195">
         <f>AE206/(AF206*V195)</f>
         <v>2.6319171357339296E-2</v>
       </c>
       <c r="R195" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S195">
         <f>AE207/(AF207*V196)</f>
         <v>2.05761316872428E-3</v>
       </c>
       <c r="U195" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="V195" s="1">
         <f>'Room Dimensions'!O36</f>
@@ -8500,7 +8693,7 @@
         <v>6</v>
       </c>
       <c r="AD195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE195">
         <f>0.27</f>
@@ -8509,35 +8702,35 @@
     </row>
     <row r="196" spans="12:32">
       <c r="L196" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M196">
         <f>1/(V197*Y195)</f>
         <v>4.4513997565640761E-3</v>
       </c>
       <c r="O196" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P196">
         <f>AE201/(AF201*V195)</f>
         <v>0.3056570432456957</v>
       </c>
       <c r="R196" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S196">
         <f>AE208/(AF208*V196)</f>
         <v>3.5273368606701938</v>
       </c>
       <c r="U196" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V196" s="1">
         <f>'Room Dimensions'!O43</f>
         <v>2.0249999999999999</v>
       </c>
       <c r="AD196" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE196">
         <v>0.22500000000000001</v>
@@ -8545,35 +8738,35 @@
     </row>
     <row r="197" spans="12:32">
       <c r="L197" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M197">
         <f>1/(V197*X195)</f>
         <v>1.1128499391410189E-2</v>
       </c>
       <c r="O197" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P197">
         <f>P195</f>
         <v>2.6319171357339296E-2</v>
       </c>
       <c r="R197" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S197">
         <f>S195</f>
         <v>2.05761316872428E-3</v>
       </c>
       <c r="U197" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V197" s="1">
         <f>V195+V196</f>
         <v>8.9859375000000004</v>
       </c>
       <c r="AD197" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE197">
         <v>0.22500000000000001</v>
@@ -8581,14 +8774,14 @@
     </row>
     <row r="198" spans="12:32">
       <c r="O198" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P198">
         <f>AE201/(AF201*V195)</f>
         <v>0.3056570432456957</v>
       </c>
       <c r="AD198" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE198">
         <v>0.35</v>
@@ -8596,7 +8789,7 @@
     </row>
     <row r="199" spans="12:32">
       <c r="AD199" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE199">
         <f>10/1000</f>
@@ -8605,28 +8798,28 @@
     </row>
     <row r="200" spans="12:32">
       <c r="L200" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M200">
         <f>SUM(M195:M198)</f>
         <v>1.5579899147974266E-2</v>
       </c>
       <c r="O200" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P200">
         <f>SUM(P195:P198)</f>
         <v>0.66395242920607001</v>
       </c>
       <c r="R200" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S200">
         <f>SUM(S195:S197)</f>
         <v>3.5314520870076427</v>
       </c>
       <c r="AD200" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE200">
         <f>0.5/1000</f>
@@ -8642,7 +8835,7 @@
         <v>0.23747416313202116</v>
       </c>
       <c r="AD201" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE201">
         <f>100/1000</f>
@@ -8654,12 +8847,12 @@
     </row>
     <row r="202" spans="12:32">
       <c r="AD202" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="12:32">
       <c r="AD203" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE203">
         <f>0.2</f>
@@ -8669,9 +8862,9 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="204" spans="12:32" ht="15.5">
+    <row r="204" spans="12:32" ht="15.75">
       <c r="AD204" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE204">
         <f>40/1000</f>
@@ -8681,9 +8874,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="205" spans="12:32" ht="19">
+    <row r="205" spans="12:32" ht="18.75">
       <c r="AD205" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AE205">
         <v>5.3999999999999999E-2</v>
@@ -8694,7 +8887,7 @@
     </row>
     <row r="206" spans="12:32">
       <c r="AD206" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE206">
         <v>0.24</v>
@@ -8705,7 +8898,7 @@
     </row>
     <row r="207" spans="12:32">
       <c r="AD207" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AE207">
         <f>4/1000</f>
@@ -8718,7 +8911,7 @@
     </row>
     <row r="208" spans="12:32">
       <c r="AD208" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE208">
         <v>1</v>
@@ -8729,7 +8922,7 @@
     </row>
     <row r="209" spans="30:32">
       <c r="AD209" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE209">
         <f>5/1000</f>
@@ -8741,7 +8934,7 @@
     </row>
     <row r="210" spans="30:32">
       <c r="AD210" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE210">
         <f>6/1000</f>
@@ -8753,7 +8946,7 @@
     </row>
     <row r="211" spans="30:32">
       <c r="AD211" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AE211">
         <f>35/1000</f>
@@ -8788,34 +8981,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC0E5C8-DE2B-4973-A418-2B3B1A5637C1}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <f>'U values Upstairs'!R201</f>
@@ -8827,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <f>'U values Upstairs'!N159</f>
@@ -8839,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4">
         <f>'U values Upstairs'!K119</f>
@@ -8851,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <f>'U values Upstairs'!L78</f>
@@ -8863,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6">
         <f>'U values Upstairs'!J39</f>
@@ -8872,10 +9065,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <f>'U values Downstairsn'!P36</f>
@@ -8884,10 +9077,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <f>'U values Downstairsn'!J81</f>
@@ -8896,10 +9089,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <f>'U values Downstairsn'!AO49</f>
@@ -8908,10 +9101,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <f>'U values Downstairsn'!AS80</f>
@@ -8920,10 +9113,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C11">
         <f>'U values Downstairsn'!AT123</f>
@@ -8932,17 +9125,491 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12">
-        <f>SUM(C1:C11)</f>
-        <v>2.8542582191877059</v>
+        <f>'U values Downstairsn'!H126</f>
+        <v>1.2597883030818573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C1:C12)</f>
+        <v>4.1140465222695628</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5579D83A-9128-4BAA-A37E-4AB3B84E096E}">
+  <dimension ref="A2:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="G2" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>'Room Dimensions'!U64</f>
+        <v>10.769000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4">
+        <f>'Room Dimensions'!I50</f>
+        <v>9.7453124999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <f>'Room Dimensions'!U50</f>
+        <v>12.604625000000002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <f>'Room Dimensions'!J63</f>
+        <v>38.300390625000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6">
+        <f>'Room Dimensions'!U75</f>
+        <v>10.155600000000002</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <f>'Room Dimensions'!J35</f>
+        <v>39.926249999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7">
+        <f>'Room Dimensions'!T5</f>
+        <v>23.155687500000006</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7">
+        <f>'Room Dimensions'!J20</f>
+        <v>20.69484375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <f>'Room Dimensions'!U20</f>
+        <v>48.925000000000004</v>
+      </c>
+      <c r="G8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8">
+        <f>'Room Dimensions'!I6</f>
+        <v>12.928125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <f>'Room Dimensions'!U36</f>
+        <v>31.893749999999997</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="N10" s="47"/>
+      <c r="O10" s="49"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="M11" s="21"/>
+      <c r="N11" s="28">
+        <v>280</v>
+      </c>
+      <c r="O11" s="29">
+        <v>2.7900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="N12" s="28">
+        <v>288.7</v>
+      </c>
+      <c r="O12" s="29">
+        <v>2.7900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="N13" s="28">
+        <v>300</v>
+      </c>
+      <c r="O13" s="29">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="N14" s="30">
+        <v>320</v>
+      </c>
+      <c r="O14" s="31">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="O15">
+        <f>AVERAGE(O11:O14)</f>
+        <v>2.7950000000000002E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b442b78f-55a9-44c7-b40e-ae9778fe4ee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FB18EA1FA9A9744DA548C6EB8BA1DB7D" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fd4088c86be44d1fc569854438896cb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b442b78f-55a9-44c7-b40e-ae9778fe4ee6" xmlns:ns4="9e413a52-656d-4992-acff-3d7c98edc487" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c830544f3c993e3fc5db30c15e15ca93" ns3:_="" ns4:_="">
+    <xsd:import namespace="b442b78f-55a9-44c7-b40e-ae9778fe4ee6"/>
+    <xsd:import namespace="9e413a52-656d-4992-acff-3d7c98edc487"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b442b78f-55a9-44c7-b40e-ae9778fe4ee6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9e413a52-656d-4992-acff-3d7c98edc487" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4576C5A5-63FE-4249-85FC-3CBDACF19BDA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89CBDCFD-9DA5-4734-832F-0DDF6A656031}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9e413a52-656d-4992-acff-3d7c98edc487"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b442b78f-55a9-44c7-b40e-ae9778fe4ee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F192285-E2B1-4837-A106-E8DB81B1565D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b442b78f-55a9-44c7-b40e-ae9778fe4ee6"/>
+    <ds:schemaRef ds:uri="9e413a52-656d-4992-acff-3d7c98edc487"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>